--- a/data/scheduling_DNN/predict/0.9/result10.xlsx
+++ b/data/scheduling_DNN/predict/0.9/result10.xlsx
@@ -570,10 +570,10 @@
         <v>0.9794797897338867</v>
       </c>
       <c r="V2" t="n">
-        <v>0.8004976511001587</v>
+        <v>0.4021134376525879</v>
       </c>
       <c r="W2" t="n">
-        <v>0.03203460574150085</v>
+        <v>0.3333519101142883</v>
       </c>
     </row>
     <row r="3" spans="1:23">
@@ -641,10 +641,10 @@
         <v>0.9676339626312256</v>
       </c>
       <c r="V3" t="n">
-        <v>0.5822299122810364</v>
+        <v>0.4005195796489716</v>
       </c>
       <c r="W3" t="n">
-        <v>0.148536279797554</v>
+        <v>0.3216186761856079</v>
       </c>
     </row>
     <row r="4" spans="1:23">
@@ -712,10 +712,10 @@
         <v>0.8928799629211426</v>
       </c>
       <c r="V4" t="n">
-        <v>0.8031194806098938</v>
+        <v>0.8754335045814514</v>
       </c>
       <c r="W4" t="n">
-        <v>0.008056944236159325</v>
+        <v>0.0003043789183720946</v>
       </c>
     </row>
     <row r="5" spans="1:23">
@@ -783,10 +783,10 @@
         <v>0.9529950618743896</v>
       </c>
       <c r="V5" t="n">
-        <v>0.6516773104667664</v>
+        <v>0.8895294666290283</v>
       </c>
       <c r="W5" t="n">
-        <v>0.09079238772392273</v>
+        <v>0.004027881659567356</v>
       </c>
     </row>
     <row r="6" spans="1:23">
@@ -854,10 +854,10 @@
         <v>0.8731439113616943</v>
       </c>
       <c r="V6" t="n">
-        <v>0.8341859579086304</v>
+        <v>0.5225061774253845</v>
       </c>
       <c r="W6" t="n">
-        <v>0.001517722150310874</v>
+        <v>0.1229468211531639</v>
       </c>
     </row>
     <row r="7" spans="1:23">
@@ -925,10 +925,10 @@
         <v>0.8645679950714111</v>
       </c>
       <c r="V7" t="n">
-        <v>0.417652815580368</v>
+        <v>0.4010147452354431</v>
       </c>
       <c r="W7" t="n">
-        <v>0.1997331827878952</v>
+        <v>0.2148816138505936</v>
       </c>
     </row>
     <row r="8" spans="1:23">
@@ -996,10 +996,10 @@
         <v>0.8625519275665283</v>
       </c>
       <c r="V8" t="n">
-        <v>0.490907609462738</v>
+        <v>0.3992279171943665</v>
       </c>
       <c r="W8" t="n">
-        <v>0.1381195038557053</v>
+        <v>0.2146691381931305</v>
       </c>
     </row>
     <row r="9" spans="1:23">
@@ -1067,10 +1067,10 @@
         <v>0.9215719699859619</v>
       </c>
       <c r="V9" t="n">
-        <v>0.3514944016933441</v>
+        <v>0.5150161981582642</v>
       </c>
       <c r="W9" t="n">
-        <v>0.3249883949756622</v>
+        <v>0.1652875989675522</v>
       </c>
     </row>
     <row r="10" spans="1:23">
@@ -1138,10 +1138,10 @@
         <v>0.8664600849151611</v>
       </c>
       <c r="V10" t="n">
-        <v>0.97564297914505</v>
+        <v>0.5321518778800964</v>
       </c>
       <c r="W10" t="n">
-        <v>0.01192090474069118</v>
+        <v>0.1117619797587395</v>
       </c>
     </row>
     <row r="11" spans="1:23">
@@ -1209,10 +1209,10 @@
         <v>0.8702640533447266</v>
       </c>
       <c r="V11" t="n">
-        <v>0.5042976140975952</v>
+        <v>0.8662299513816833</v>
       </c>
       <c r="W11" t="n">
-        <v>0.133931428194046</v>
+        <v>1.627397796255536e-05</v>
       </c>
     </row>
     <row r="12" spans="1:23">
@@ -1280,10 +1280,10 @@
         <v>0.8581809997558594</v>
       </c>
       <c r="V12" t="n">
-        <v>0.576347291469574</v>
+        <v>0.8745232224464417</v>
       </c>
       <c r="W12" t="n">
-        <v>0.0794302374124527</v>
+        <v>0.0002670682442840189</v>
       </c>
     </row>
     <row r="13" spans="1:23">
@@ -1351,10 +1351,10 @@
         <v>0.9246721267700195</v>
       </c>
       <c r="V13" t="n">
-        <v>0.3719204664230347</v>
+        <v>0.5265088081359863</v>
       </c>
       <c r="W13" t="n">
-        <v>0.3055343925952911</v>
+        <v>0.1585340350866318</v>
       </c>
     </row>
     <row r="14" spans="1:23">
@@ -1422,10 +1422,10 @@
         <v>0.8902468681335449</v>
       </c>
       <c r="V14" t="n">
-        <v>0.4638242721557617</v>
+        <v>0.528843879699707</v>
       </c>
       <c r="W14" t="n">
-        <v>0.1818362325429916</v>
+        <v>0.1306121200323105</v>
       </c>
     </row>
     <row r="15" spans="1:23">
@@ -1493,10 +1493,10 @@
         <v>0.9461069107055664</v>
       </c>
       <c r="V15" t="n">
-        <v>0.5051230192184448</v>
+        <v>0.8704688549041748</v>
       </c>
       <c r="W15" t="n">
-        <v>0.1944667994976044</v>
+        <v>0.005721115507185459</v>
       </c>
     </row>
     <row r="16" spans="1:23">
@@ -1564,10 +1564,10 @@
         <v>0.8925089836120605</v>
       </c>
       <c r="V16" t="n">
-        <v>0.3507598340511322</v>
+        <v>0.3992083072662354</v>
       </c>
       <c r="W16" t="n">
-        <v>0.2934921085834503</v>
+        <v>0.2433455586433411</v>
       </c>
     </row>
     <row r="17" spans="1:23">
@@ -1635,10 +1635,10 @@
         <v>1.032396793365479</v>
       </c>
       <c r="V17" t="n">
-        <v>0.9751924276351929</v>
+        <v>0.4004540741443634</v>
       </c>
       <c r="W17" t="n">
-        <v>0.003272339468821883</v>
+        <v>0.3993516266345978</v>
       </c>
     </row>
     <row r="18" spans="1:23">
@@ -1706,10 +1706,10 @@
         <v>0.8889100551605225</v>
       </c>
       <c r="V18" t="n">
-        <v>0.4614622294902802</v>
+        <v>0.8822298049926758</v>
       </c>
       <c r="W18" t="n">
-        <v>0.1827116459608078</v>
+        <v>4.462574361241423e-05</v>
       </c>
     </row>
     <row r="19" spans="1:23">
@@ -1777,10 +1777,10 @@
         <v>0.8629519939422607</v>
       </c>
       <c r="V19" t="n">
-        <v>0.5044592022895813</v>
+        <v>0.4000167846679688</v>
       </c>
       <c r="W19" t="n">
-        <v>0.1285170763731003</v>
+        <v>0.2143090069293976</v>
       </c>
     </row>
     <row r="20" spans="1:23">
@@ -1848,10 +1848,10 @@
         <v>0.9000070095062256</v>
       </c>
       <c r="V20" t="n">
-        <v>0.6533396244049072</v>
+        <v>0.865663468837738</v>
       </c>
       <c r="W20" t="n">
-        <v>0.06084479764103889</v>
+        <v>0.001179478829726577</v>
       </c>
     </row>
     <row r="21" spans="1:23">
@@ -1919,10 +1919,10 @@
         <v>0.8741238117218018</v>
       </c>
       <c r="V21" t="n">
-        <v>0.5762016177177429</v>
+        <v>0.5266836285591125</v>
       </c>
       <c r="W21" t="n">
-        <v>0.08875763416290283</v>
+        <v>0.1207146793603897</v>
       </c>
     </row>
     <row r="22" spans="1:23">
@@ -1990,10 +1990,10 @@
         <v>0.5318021774291992</v>
       </c>
       <c r="V22" t="n">
-        <v>0.5244113802909851</v>
+        <v>0.5289084315299988</v>
       </c>
       <c r="W22" t="n">
-        <v>5.462388071464375e-05</v>
+        <v>8.373765012947842e-06</v>
       </c>
     </row>
     <row r="23" spans="1:23">
@@ -2061,10 +2061,10 @@
         <v>0.5245418548583984</v>
       </c>
       <c r="V23" t="n">
-        <v>0.4638742208480835</v>
+        <v>0.8762713670730591</v>
       </c>
       <c r="W23" t="n">
-        <v>0.0036805619020015</v>
+        <v>0.1237136498093605</v>
       </c>
     </row>
     <row r="24" spans="1:23">
@@ -2132,10 +2132,10 @@
         <v>0.525831937789917</v>
       </c>
       <c r="V24" t="n">
-        <v>0.3789054155349731</v>
+        <v>0.3990130126476288</v>
       </c>
       <c r="W24" t="n">
-        <v>0.02158740349113941</v>
+        <v>0.01608303934335709</v>
       </c>
     </row>
     <row r="25" spans="1:23">
@@ -2203,10 +2203,10 @@
         <v>0.5252861976623535</v>
       </c>
       <c r="V25" t="n">
-        <v>0.652911365032196</v>
+        <v>0.4001752436161041</v>
       </c>
       <c r="W25" t="n">
-        <v>0.01628818362951279</v>
+        <v>0.01565275155007839</v>
       </c>
     </row>
     <row r="26" spans="1:23">
@@ -2274,10 +2274,10 @@
         <v>0.5288469791412354</v>
       </c>
       <c r="V26" t="n">
-        <v>0.6533820629119873</v>
+        <v>0.5033557415008545</v>
       </c>
       <c r="W26" t="n">
-        <v>0.0155089870095253</v>
+        <v>0.0006498032016679645</v>
       </c>
     </row>
     <row r="27" spans="1:23">
@@ -2345,10 +2345,10 @@
         <v>0.5142171382904053</v>
       </c>
       <c r="V27" t="n">
-        <v>0.5046958923339844</v>
+        <v>0.5275955200195312</v>
       </c>
       <c r="W27" t="n">
-        <v>9.065412450581789e-05</v>
+        <v>0.0001789810921764001</v>
       </c>
     </row>
     <row r="28" spans="1:23">
@@ -2416,10 +2416,10 @@
         <v>0.5158491134643555</v>
       </c>
       <c r="V28" t="n">
-        <v>0.9755766987800598</v>
+        <v>0.527825653553009</v>
       </c>
       <c r="W28" t="n">
-        <v>0.2113494575023651</v>
+        <v>0.0001434375153621659</v>
       </c>
     </row>
     <row r="29" spans="1:23">
@@ -2487,10 +2487,10 @@
         <v>0.5251669883728027</v>
       </c>
       <c r="V29" t="n">
-        <v>0.9757341742515564</v>
+        <v>0.3992215096950531</v>
       </c>
       <c r="W29" t="n">
-        <v>0.2030107825994492</v>
+        <v>0.01586226373910904</v>
       </c>
     </row>
     <row r="30" spans="1:23">
@@ -2558,10 +2558,10 @@
         <v>0.5254950523376465</v>
       </c>
       <c r="V30" t="n">
-        <v>0.4176262617111206</v>
+        <v>0.4003463983535767</v>
       </c>
       <c r="W30" t="n">
-        <v>0.0116356760263443</v>
+        <v>0.01566218584775925</v>
       </c>
     </row>
     <row r="31" spans="1:23">
@@ -2629,10 +2629,10 @@
         <v>0.5749380588531494</v>
       </c>
       <c r="V31" t="n">
-        <v>0.8000637888908386</v>
+        <v>0.871204137802124</v>
       </c>
       <c r="W31" t="n">
-        <v>0.05068159475922585</v>
+        <v>0.08777359127998352</v>
       </c>
     </row>
     <row r="32" spans="1:23">
@@ -2700,10 +2700,10 @@
         <v>0.523745059967041</v>
       </c>
       <c r="V32" t="n">
-        <v>0.4634823501110077</v>
+        <v>0.8678355813026428</v>
       </c>
       <c r="W32" t="n">
-        <v>0.003631594125181437</v>
+        <v>0.1183982864022255</v>
       </c>
     </row>
     <row r="33" spans="1:23">
@@ -2771,10 +2771,10 @@
         <v>0.5168280601501465</v>
       </c>
       <c r="V33" t="n">
-        <v>0.5762282013893127</v>
+        <v>0.8739727139472961</v>
       </c>
       <c r="W33" t="n">
-        <v>0.003528376808390021</v>
+        <v>0.1275523006916046</v>
       </c>
     </row>
     <row r="34" spans="1:23">
@@ -2842,10 +2842,10 @@
         <v>0.5223760604858398</v>
       </c>
       <c r="V34" t="n">
-        <v>0.5761433839797974</v>
+        <v>0.5293178558349609</v>
       </c>
       <c r="W34" t="n">
-        <v>0.002890925155952573</v>
+        <v>4.818852175958455e-05</v>
       </c>
     </row>
     <row r="35" spans="1:23">
@@ -2913,10 +2913,10 @@
         <v>0.5150079727172852</v>
       </c>
       <c r="V35" t="n">
-        <v>0.5045692920684814</v>
+        <v>0.5179391503334045</v>
       </c>
       <c r="W35" t="n">
-        <v>0.0001089660509023815</v>
+        <v>8.591801815782674e-06</v>
       </c>
     </row>
     <row r="36" spans="1:23">
@@ -2984,10 +2984,10 @@
         <v>0.5180509090423584</v>
       </c>
       <c r="V36" t="n">
-        <v>0.3719484806060791</v>
+        <v>0.3992243409156799</v>
       </c>
       <c r="W36" t="n">
-        <v>0.02134591899812222</v>
+        <v>0.01411975361406803</v>
       </c>
     </row>
     <row r="37" spans="1:23">
@@ -3055,10 +3055,10 @@
         <v>0.5202999114990234</v>
       </c>
       <c r="V37" t="n">
-        <v>0.3786694407463074</v>
+        <v>0.4004721939563751</v>
       </c>
       <c r="W37" t="n">
-        <v>0.02005919069051743</v>
+        <v>0.01435868162661791</v>
       </c>
     </row>
     <row r="38" spans="1:23">
@@ -3126,10 +3126,10 @@
         <v>0.5169610977172852</v>
       </c>
       <c r="V38" t="n">
-        <v>0.8296811580657959</v>
+        <v>0.8664320111274719</v>
       </c>
       <c r="W38" t="n">
-        <v>0.0977938324213028</v>
+        <v>0.1221299171447754</v>
       </c>
     </row>
     <row r="39" spans="1:23">
@@ -3197,10 +3197,10 @@
         <v>0.5169391632080078</v>
       </c>
       <c r="V39" t="n">
-        <v>0.372467577457428</v>
+        <v>0.3990231454372406</v>
       </c>
       <c r="W39" t="n">
-        <v>0.02087203972041607</v>
+        <v>0.01390418689697981</v>
       </c>
     </row>
     <row r="40" spans="1:23">
@@ -3268,10 +3268,10 @@
         <v>0.5150978565216064</v>
       </c>
       <c r="V40" t="n">
-        <v>0.708076536655426</v>
+        <v>0.3990327417850494</v>
       </c>
       <c r="W40" t="n">
-        <v>0.03724076971411705</v>
+        <v>0.01347111072391272</v>
       </c>
     </row>
     <row r="41" spans="1:23">
@@ -3339,10 +3339,10 @@
         <v>0.5135898590087891</v>
       </c>
       <c r="V41" t="n">
-        <v>0.8020263910293579</v>
+        <v>0.4000329375267029</v>
       </c>
       <c r="W41" t="n">
-        <v>0.08319563418626785</v>
+        <v>0.01289517432451248</v>
       </c>
     </row>
     <row r="42" spans="1:23">
@@ -3410,10 +3410,10 @@
         <v>0.44476318359375</v>
       </c>
       <c r="V42" t="n">
-        <v>0.4176522493362427</v>
+        <v>0.5284475088119507</v>
       </c>
       <c r="W42" t="n">
-        <v>0.0007350027444772422</v>
+        <v>0.007003066129982471</v>
       </c>
     </row>
     <row r="43" spans="1:23">
@@ -3481,10 +3481,10 @@
         <v>0.399029016494751</v>
       </c>
       <c r="V43" t="n">
-        <v>0.8381872177124023</v>
+        <v>0.4000225365161896</v>
       </c>
       <c r="W43" t="n">
-        <v>0.1928599327802658</v>
+        <v>9.870819894786109e-07</v>
       </c>
     </row>
     <row r="44" spans="1:23">
@@ -3552,10 +3552,10 @@
         <v>0.3880929946899414</v>
       </c>
       <c r="V44" t="n">
-        <v>0.5256670713424683</v>
+        <v>0.8670015931129456</v>
       </c>
       <c r="W44" t="n">
-        <v>0.01892662607133389</v>
+        <v>0.2293534427881241</v>
       </c>
     </row>
     <row r="45" spans="1:23">
@@ -3623,10 +3623,10 @@
         <v>0.3886041641235352</v>
       </c>
       <c r="V45" t="n">
-        <v>0.4176601767539978</v>
+        <v>0.3990200757980347</v>
       </c>
       <c r="W45" t="n">
-        <v>0.0008442518883384764</v>
+        <v>0.0001084912146325223</v>
       </c>
     </row>
     <row r="46" spans="1:23">
@@ -3694,10 +3694,10 @@
         <v>0.3879408836364746</v>
       </c>
       <c r="V46" t="n">
-        <v>0.490370512008667</v>
+        <v>0.5276793241500854</v>
       </c>
       <c r="W46" t="n">
-        <v>0.01049182843416929</v>
+        <v>0.01952683180570602</v>
       </c>
     </row>
     <row r="47" spans="1:23">
@@ -3765,10 +3765,10 @@
         <v>0.3933541774749756</v>
       </c>
       <c r="V47" t="n">
-        <v>0.5245808959007263</v>
+        <v>0.5250182151794434</v>
       </c>
       <c r="W47" t="n">
-        <v>0.01722045242786407</v>
+        <v>0.01733541861176491</v>
       </c>
     </row>
     <row r="48" spans="1:23">
@@ -3836,10 +3836,10 @@
         <v>0.4579198360443115</v>
       </c>
       <c r="V48" t="n">
-        <v>0.5245010852813721</v>
+        <v>0.8623715043067932</v>
       </c>
       <c r="W48" t="n">
-        <v>0.004433062858879566</v>
+        <v>0.1635811477899551</v>
       </c>
     </row>
     <row r="49" spans="1:23">
@@ -3907,10 +3907,10 @@
         <v>0.388361930847168</v>
       </c>
       <c r="V49" t="n">
-        <v>0.9755794405937195</v>
+        <v>0.5154550075531006</v>
       </c>
       <c r="W49" t="n">
-        <v>0.3448244035243988</v>
+        <v>0.01615265011787415</v>
       </c>
     </row>
     <row r="50" spans="1:23">
@@ -3978,10 +3978,10 @@
         <v>0.3886840343475342</v>
       </c>
       <c r="V50" t="n">
-        <v>0.802417516708374</v>
+        <v>0.8607102632522583</v>
       </c>
       <c r="W50" t="n">
-        <v>0.1711753904819489</v>
+        <v>0.222808763384819</v>
       </c>
     </row>
     <row r="51" spans="1:23">
@@ -4049,10 +4049,10 @@
         <v>0.3883380889892578</v>
       </c>
       <c r="V51" t="n">
-        <v>0.4909484088420868</v>
+        <v>0.5129312872886658</v>
       </c>
       <c r="W51" t="n">
-        <v>0.01052887737751007</v>
+        <v>0.01552346535027027</v>
       </c>
     </row>
     <row r="52" spans="1:23">
@@ -4120,10 +4120,10 @@
         <v>0.3863601684570312</v>
       </c>
       <c r="V52" t="n">
-        <v>0.6533793210983276</v>
+        <v>0.5155951380729675</v>
       </c>
       <c r="W52" t="n">
-        <v>0.0712992250919342</v>
+        <v>0.01670167781412601</v>
       </c>
     </row>
     <row r="53" spans="1:23">
@@ -4191,10 +4191,10 @@
         <v>0.3927228450775146</v>
       </c>
       <c r="V53" t="n">
-        <v>0.3507419228553772</v>
+        <v>0.8747639060020447</v>
       </c>
       <c r="W53" t="n">
-        <v>0.001762397820129991</v>
+        <v>0.2323635816574097</v>
       </c>
     </row>
     <row r="54" spans="1:23">
@@ -4262,10 +4262,10 @@
         <v>0.3897840976715088</v>
       </c>
       <c r="V54" t="n">
-        <v>0.653571605682373</v>
+        <v>0.5281351804733276</v>
       </c>
       <c r="W54" t="n">
-        <v>0.06958384811878204</v>
+        <v>0.01914102211594582</v>
       </c>
     </row>
     <row r="55" spans="1:23">
@@ -4333,10 +4333,10 @@
         <v>0.3866229057312012</v>
       </c>
       <c r="V55" t="n">
-        <v>0.655465304851532</v>
+        <v>0.5228073000907898</v>
       </c>
       <c r="W55" t="n">
-        <v>0.07227623462677002</v>
+        <v>0.01854619011282921</v>
       </c>
     </row>
     <row r="56" spans="1:23">
@@ -4404,10 +4404,10 @@
         <v>0.3870401382446289</v>
       </c>
       <c r="V56" t="n">
-        <v>0.490329772233963</v>
+        <v>0.3990200757980347</v>
       </c>
       <c r="W56" t="n">
-        <v>0.0106687480583787</v>
+        <v>0.0001435189042240381</v>
       </c>
     </row>
     <row r="57" spans="1:23">
@@ -4475,10 +4475,10 @@
         <v>0.386038064956665</v>
       </c>
       <c r="V57" t="n">
-        <v>0.7081183791160583</v>
+        <v>0.3989969789981842</v>
       </c>
       <c r="W57" t="n">
-        <v>0.1037357300519943</v>
+        <v>0.0001679334527580068</v>
       </c>
     </row>
     <row r="58" spans="1:23">
@@ -4546,10 +4546,10 @@
         <v>0.3887989521026611</v>
       </c>
       <c r="V58" t="n">
-        <v>0.4176277816295624</v>
+        <v>0.5217819213867188</v>
       </c>
       <c r="W58" t="n">
-        <v>0.0008311014389619231</v>
+        <v>0.01768447086215019</v>
       </c>
     </row>
     <row r="59" spans="1:23">
@@ -4617,10 +4617,10 @@
         <v>0.3902380466461182</v>
       </c>
       <c r="V59" t="n">
-        <v>0.524641752243042</v>
+        <v>0.5182278156280518</v>
       </c>
       <c r="W59" t="n">
-        <v>0.0180643554776907</v>
+        <v>0.01638138107955456</v>
       </c>
     </row>
     <row r="60" spans="1:23">
@@ -4688,10 +4688,10 @@
         <v>0.3865880966186523</v>
       </c>
       <c r="V60" t="n">
-        <v>0.8015877604484558</v>
+        <v>0.8872705698013306</v>
       </c>
       <c r="W60" t="n">
-        <v>0.1722247153520584</v>
+        <v>0.2506829500198364</v>
       </c>
     </row>
     <row r="61" spans="1:23">
@@ -4759,10 +4759,10 @@
         <v>0.3878679275512695</v>
       </c>
       <c r="V61" t="n">
-        <v>0.3471212387084961</v>
+        <v>0.5650582313537598</v>
       </c>
       <c r="W61" t="n">
-        <v>0.001660292618907988</v>
+        <v>0.03139640390872955</v>
       </c>
     </row>
     <row r="62" spans="1:23">
@@ -4830,10 +4830,10 @@
         <v>0.8751311302185059</v>
       </c>
       <c r="V62" t="n">
-        <v>0.8012609481811523</v>
+        <v>0.8685020208358765</v>
       </c>
       <c r="W62" t="n">
-        <v>0.00545680383220315</v>
+        <v>4.394509232952259e-05</v>
       </c>
     </row>
     <row r="63" spans="1:23">
@@ -4901,10 +4901,10 @@
         <v>0.8647689819335938</v>
       </c>
       <c r="V63" t="n">
-        <v>0.6529941558837891</v>
+        <v>0.5661544799804688</v>
       </c>
       <c r="W63" t="n">
-        <v>0.04484857618808746</v>
+        <v>0.08917061984539032</v>
       </c>
     </row>
     <row r="64" spans="1:23">
@@ -4972,10 +4972,10 @@
         <v>0.8650479316711426</v>
       </c>
       <c r="V64" t="n">
-        <v>0.9755281805992126</v>
+        <v>0.8675766587257385</v>
       </c>
       <c r="W64" t="n">
-        <v>0.01220588572323322</v>
+        <v>6.394460342562525e-06</v>
       </c>
     </row>
     <row r="65" spans="1:23">
@@ -5043,10 +5043,10 @@
         <v>0.9153280258178711</v>
       </c>
       <c r="V65" t="n">
-        <v>0.8004398941993713</v>
+        <v>0.5267429351806641</v>
       </c>
       <c r="W65" t="n">
-        <v>0.01319928281009197</v>
+        <v>0.1509983688592911</v>
       </c>
     </row>
     <row r="66" spans="1:23">
@@ -5114,10 +5114,10 @@
         <v>0.8817720413208008</v>
       </c>
       <c r="V66" t="n">
-        <v>0.4174875020980835</v>
+        <v>0.5246946215629578</v>
       </c>
       <c r="W66" t="n">
-        <v>0.2155601382255554</v>
+        <v>0.127504289150238</v>
       </c>
     </row>
     <row r="67" spans="1:23">
@@ -5185,10 +5185,10 @@
         <v>0.8586130142211914</v>
       </c>
       <c r="V67" t="n">
-        <v>0.503772497177124</v>
+        <v>0.8681973814964294</v>
       </c>
       <c r="W67" t="n">
-        <v>0.1259117871522903</v>
+        <v>9.186009265249595e-05</v>
       </c>
     </row>
     <row r="68" spans="1:23">
@@ -5256,10 +5256,10 @@
         <v>0.8732349872589111</v>
       </c>
       <c r="V68" t="n">
-        <v>0.4904916286468506</v>
+        <v>0.3989916443824768</v>
       </c>
       <c r="W68" t="n">
-        <v>0.1464924812316895</v>
+        <v>0.2249067425727844</v>
       </c>
     </row>
     <row r="69" spans="1:23">
@@ -5327,10 +5327,10 @@
         <v>1.008948802947998</v>
       </c>
       <c r="V69" t="n">
-        <v>0.6535108089447021</v>
+        <v>0.5271438956260681</v>
       </c>
       <c r="W69" t="n">
-        <v>0.1263361722230911</v>
+        <v>0.2321359664201736</v>
       </c>
     </row>
     <row r="70" spans="1:23">
@@ -5398,10 +5398,10 @@
         <v>0.8601210117340088</v>
       </c>
       <c r="V70" t="n">
-        <v>0.5248074531555176</v>
+        <v>0.8667207956314087</v>
       </c>
       <c r="W70" t="n">
-        <v>0.1124351844191551</v>
+        <v>4.355714918347076e-05</v>
       </c>
     </row>
     <row r="71" spans="1:23">
@@ -5469,10 +5469,10 @@
         <v>0.865354061126709</v>
       </c>
       <c r="V71" t="n">
-        <v>0.3518537282943726</v>
+        <v>0.4006742238998413</v>
       </c>
       <c r="W71" t="n">
-        <v>0.2636826038360596</v>
+        <v>0.2159273475408554</v>
       </c>
     </row>
     <row r="72" spans="1:23">
@@ -5540,10 +5540,10 @@
         <v>0.8860900402069092</v>
       </c>
       <c r="V72" t="n">
-        <v>0.6928392648696899</v>
+        <v>0.5270816087722778</v>
       </c>
       <c r="W72" t="n">
-        <v>0.03734586387872696</v>
+        <v>0.1288870573043823</v>
       </c>
     </row>
     <row r="73" spans="1:23">
@@ -5611,10 +5611,10 @@
         <v>0.871002197265625</v>
       </c>
       <c r="V73" t="n">
-        <v>0.3712720274925232</v>
+        <v>0.8696967363357544</v>
       </c>
       <c r="W73" t="n">
-        <v>0.2497302442789078</v>
+        <v>1.704228225207771e-06</v>
       </c>
     </row>
     <row r="74" spans="1:23">
@@ -5682,10 +5682,10 @@
         <v>0.8614761829376221</v>
       </c>
       <c r="V74" t="n">
-        <v>0.6531109213829041</v>
+        <v>0.515126645565033</v>
       </c>
       <c r="W74" t="n">
-        <v>0.04341608285903931</v>
+        <v>0.1199579983949661</v>
       </c>
     </row>
     <row r="75" spans="1:23">
@@ -5753,10 +5753,10 @@
         <v>0.8716320991516113</v>
       </c>
       <c r="V75" t="n">
-        <v>0.3717378973960876</v>
+        <v>0.8820728063583374</v>
       </c>
       <c r="W75" t="n">
-        <v>0.2498942166566849</v>
+        <v>0.0001090083678718656</v>
       </c>
     </row>
     <row r="76" spans="1:23">
@@ -5824,10 +5824,10 @@
         <v>0.863724946975708</v>
       </c>
       <c r="V76" t="n">
-        <v>0.8039833903312683</v>
+        <v>0.8765343427658081</v>
       </c>
       <c r="W76" t="n">
-        <v>0.003569053485989571</v>
+        <v>0.0001640806149225682</v>
       </c>
     </row>
     <row r="77" spans="1:23">
@@ -5895,10 +5895,10 @@
         <v>0.8873779773712158</v>
       </c>
       <c r="V77" t="n">
-        <v>0.3507460951805115</v>
+        <v>0.8704790472984314</v>
       </c>
       <c r="W77" t="n">
-        <v>0.2879737913608551</v>
+        <v>0.0002855738275684416</v>
       </c>
     </row>
     <row r="78" spans="1:23">
@@ -5966,10 +5966,10 @@
         <v>0.8622767925262451</v>
       </c>
       <c r="V78" t="n">
-        <v>0.3507409393787384</v>
+        <v>0.5268278121948242</v>
       </c>
       <c r="W78" t="n">
-        <v>0.2616689503192902</v>
+        <v>0.1125260218977928</v>
       </c>
     </row>
     <row r="79" spans="1:23">
@@ -6037,10 +6037,10 @@
         <v>0.8673980236053467</v>
       </c>
       <c r="V79" t="n">
-        <v>0.3507497906684875</v>
+        <v>0.3990318179130554</v>
       </c>
       <c r="W79" t="n">
-        <v>0.2669253945350647</v>
+        <v>0.2193669080734253</v>
       </c>
     </row>
     <row r="80" spans="1:23">
@@ -6108,10 +6108,10 @@
         <v>0.8592221736907959</v>
       </c>
       <c r="V80" t="n">
-        <v>0.4176599979400635</v>
+        <v>0.4004715383052826</v>
       </c>
       <c r="W80" t="n">
-        <v>0.1949771493673325</v>
+        <v>0.210452139377594</v>
       </c>
     </row>
     <row r="81" spans="1:23">
@@ -6179,10 +6179,10 @@
         <v>0.8615729808807373</v>
       </c>
       <c r="V81" t="n">
-        <v>0.802345335483551</v>
+        <v>0.3990171253681183</v>
       </c>
       <c r="W81" t="n">
-        <v>0.003507914021611214</v>
+        <v>0.2139579206705093</v>
       </c>
     </row>
     <row r="82" spans="1:23">
@@ -6250,10 +6250,10 @@
         <v>0.5615189075469971</v>
       </c>
       <c r="V82" t="n">
-        <v>0.6536403894424438</v>
+        <v>0.4011387526988983</v>
       </c>
       <c r="W82" t="n">
-        <v>0.008486367762088776</v>
+        <v>0.02572179399430752</v>
       </c>
     </row>
     <row r="83" spans="1:23">
@@ -6321,10 +6321,10 @@
         <v>0.5264058113098145</v>
       </c>
       <c r="V83" t="n">
-        <v>0.4175667762756348</v>
+        <v>0.4024829566478729</v>
       </c>
       <c r="W83" t="n">
-        <v>0.01184593513607979</v>
+        <v>0.01535687409341335</v>
       </c>
     </row>
     <row r="84" spans="1:23">
@@ -6392,10 +6392,10 @@
         <v>0.5268380641937256</v>
       </c>
       <c r="V84" t="n">
-        <v>0.3507673740386963</v>
+        <v>0.5157612562179565</v>
       </c>
       <c r="W84" t="n">
-        <v>0.0310008879750967</v>
+        <v>0.0001226956810569391</v>
       </c>
     </row>
     <row r="85" spans="1:23">
@@ -6463,10 +6463,10 @@
         <v>0.5270020961761475</v>
       </c>
       <c r="V85" t="n">
-        <v>0.8022716045379639</v>
+        <v>0.8898046612739563</v>
       </c>
       <c r="W85" t="n">
-        <v>0.07577329874038696</v>
+        <v>0.131625697016716</v>
       </c>
     </row>
     <row r="86" spans="1:23">
@@ -6534,10 +6534,10 @@
         <v>0.5174300670623779</v>
       </c>
       <c r="V86" t="n">
-        <v>0.5251706838607788</v>
+        <v>0.5185263156890869</v>
       </c>
       <c r="W86" t="n">
-        <v>5.99171471549198e-05</v>
+        <v>1.201761051561334e-06</v>
       </c>
     </row>
     <row r="87" spans="1:23">
@@ -6605,10 +6605,10 @@
         <v>0.5131609439849854</v>
       </c>
       <c r="V87" t="n">
-        <v>0.5762413144111633</v>
+        <v>0.400021106004715</v>
       </c>
       <c r="W87" t="n">
-        <v>0.003979132976382971</v>
+        <v>0.01280062273144722</v>
       </c>
     </row>
     <row r="88" spans="1:23">
@@ -6676,10 +6676,10 @@
         <v>0.5126879215240479</v>
       </c>
       <c r="V88" t="n">
-        <v>0.9755698442459106</v>
+        <v>0.5226427316665649</v>
       </c>
       <c r="W88" t="n">
-        <v>0.2142596691846848</v>
+        <v>9.909824439091608e-05</v>
       </c>
     </row>
     <row r="89" spans="1:23">
@@ -6747,10 +6747,10 @@
         <v>0.5149610042572021</v>
       </c>
       <c r="V89" t="n">
-        <v>0.5048985481262207</v>
+        <v>0.5196405649185181</v>
       </c>
       <c r="W89" t="n">
-        <v>0.0001012530265143141</v>
+        <v>2.189828774135094e-05</v>
       </c>
     </row>
     <row r="90" spans="1:23">
@@ -6818,10 +6818,10 @@
         <v>0.513498067855835</v>
       </c>
       <c r="V90" t="n">
-        <v>0.4903536438941956</v>
+        <v>0.4004913568496704</v>
       </c>
       <c r="W90" t="n">
-        <v>0.0005356643814593554</v>
+        <v>0.0127705167979002</v>
       </c>
     </row>
     <row r="91" spans="1:23">
@@ -6889,10 +6889,10 @@
         <v>0.5440680980682373</v>
       </c>
       <c r="V91" t="n">
-        <v>0.3515170216560364</v>
+        <v>0.5167722105979919</v>
       </c>
       <c r="W91" t="n">
-        <v>0.03707591816782951</v>
+        <v>0.0007450654520653188</v>
       </c>
     </row>
     <row r="92" spans="1:23">
@@ -6960,10 +6960,10 @@
         <v>0.514362096786499</v>
       </c>
       <c r="V92" t="n">
-        <v>0.3507759571075439</v>
+        <v>0.8750625848770142</v>
       </c>
       <c r="W92" t="n">
-        <v>0.02676042541861534</v>
+        <v>0.1301048398017883</v>
       </c>
     </row>
     <row r="93" spans="1:23">
@@ -7031,10 +7031,10 @@
         <v>0.5152039527893066</v>
       </c>
       <c r="V93" t="n">
-        <v>0.8004674911499023</v>
+        <v>0.4020784199237823</v>
       </c>
       <c r="W93" t="n">
-        <v>0.08137528598308563</v>
+        <v>0.01279738638550043</v>
       </c>
     </row>
     <row r="94" spans="1:23">
@@ -7102,10 +7102,10 @@
         <v>0.5121791362762451</v>
       </c>
       <c r="V94" t="n">
-        <v>0.4614620208740234</v>
+        <v>0.8617914915084839</v>
       </c>
       <c r="W94" t="n">
-        <v>0.002572225872427225</v>
+        <v>0.1222288012504578</v>
       </c>
     </row>
     <row r="95" spans="1:23">
@@ -7173,10 +7173,10 @@
         <v>0.5151128768920898</v>
       </c>
       <c r="V95" t="n">
-        <v>0.6546903848648071</v>
+        <v>0.8594825267791748</v>
       </c>
       <c r="W95" t="n">
-        <v>0.01948188059031963</v>
+        <v>0.118590459227562</v>
       </c>
     </row>
     <row r="96" spans="1:23">
@@ -7244,10 +7244,10 @@
         <v>0.5684380531311035</v>
       </c>
       <c r="V96" t="n">
-        <v>0.654336154460907</v>
+        <v>0.3998911678791046</v>
       </c>
       <c r="W96" t="n">
-        <v>0.007378483656793833</v>
+        <v>0.02840805239975452</v>
       </c>
     </row>
     <row r="97" spans="1:23">
@@ -7315,10 +7315,10 @@
         <v>0.5167791843414307</v>
       </c>
       <c r="V97" t="n">
-        <v>0.3507492542266846</v>
+        <v>0.5287433266639709</v>
       </c>
       <c r="W97" t="n">
-        <v>0.02756593748927116</v>
+        <v>0.0001431406999472529</v>
       </c>
     </row>
     <row r="98" spans="1:23">
@@ -7386,10 +7386,10 @@
         <v>0.5148019790649414</v>
       </c>
       <c r="V98" t="n">
-        <v>0.6543079614639282</v>
+        <v>0.4024554789066315</v>
       </c>
       <c r="W98" t="n">
-        <v>0.01946191862225533</v>
+        <v>0.01262173615396023</v>
       </c>
     </row>
     <row r="99" spans="1:23">
@@ -7457,10 +7457,10 @@
         <v>0.5159130096435547</v>
       </c>
       <c r="V99" t="n">
-        <v>0.5037472248077393</v>
+        <v>0.4000281095504761</v>
       </c>
       <c r="W99" t="n">
-        <v>0.0001480063219787553</v>
+        <v>0.01342931017279625</v>
       </c>
     </row>
     <row r="100" spans="1:23">
@@ -7528,10 +7528,10 @@
         <v>0.5167579650878906</v>
       </c>
       <c r="V100" t="n">
-        <v>0.3507806360721588</v>
+        <v>0.524167537689209</v>
       </c>
       <c r="W100" t="n">
-        <v>0.02754847332835197</v>
+        <v>5.490176772582345e-05</v>
       </c>
     </row>
     <row r="101" spans="1:23">
@@ -7599,10 +7599,10 @@
         <v>0.5163929462432861</v>
       </c>
       <c r="V101" t="n">
-        <v>0.6534236073493958</v>
+        <v>0.8580219149589539</v>
       </c>
       <c r="W101" t="n">
-        <v>0.0187774021178484</v>
+        <v>0.1167103499174118</v>
       </c>
     </row>
     <row r="102" spans="1:23">
@@ -7670,10 +7670,10 @@
         <v>0.4155259132385254</v>
       </c>
       <c r="V102" t="n">
-        <v>0.4176275134086609</v>
+        <v>0.8769470453262329</v>
       </c>
       <c r="W102" t="n">
-        <v>4.416723186295712e-06</v>
+        <v>0.212909460067749</v>
       </c>
     </row>
     <row r="103" spans="1:23">
@@ -7741,10 +7741,10 @@
         <v>0.3955559730529785</v>
       </c>
       <c r="V103" t="n">
-        <v>0.5247882604598999</v>
+        <v>0.5269245505332947</v>
       </c>
       <c r="W103" t="n">
-        <v>0.0167009849101305</v>
+        <v>0.01725770346820354</v>
       </c>
     </row>
     <row r="104" spans="1:23">
@@ -7812,10 +7812,10 @@
         <v>0.394136905670166</v>
       </c>
       <c r="V104" t="n">
-        <v>0.6992434859275818</v>
+        <v>0.4004384279251099</v>
       </c>
       <c r="W104" t="n">
-        <v>0.09309002757072449</v>
+        <v>3.97091826016549e-05</v>
       </c>
     </row>
     <row r="105" spans="1:23">
@@ -7883,10 +7883,10 @@
         <v>0.4081318378448486</v>
       </c>
       <c r="V105" t="n">
-        <v>0.5243822336196899</v>
+        <v>0.8768741488456726</v>
       </c>
       <c r="W105" t="n">
-        <v>0.01351415459066629</v>
+        <v>0.2197193503379822</v>
       </c>
     </row>
     <row r="106" spans="1:23">
@@ -7954,10 +7954,10 @@
         <v>0.3886780738830566</v>
       </c>
       <c r="V106" t="n">
-        <v>0.4176499843597412</v>
+        <v>0.4000373482704163</v>
       </c>
       <c r="W106" t="n">
-        <v>0.0008393715834245086</v>
+        <v>0.000129033112898469</v>
       </c>
     </row>
     <row r="107" spans="1:23">
@@ -8025,10 +8025,10 @@
         <v>0.3844249248504639</v>
       </c>
       <c r="V107" t="n">
-        <v>0.4906106293201447</v>
+        <v>0.8758370876312256</v>
       </c>
       <c r="W107" t="n">
-        <v>0.01127540413290262</v>
+        <v>0.2414859086275101</v>
       </c>
     </row>
     <row r="108" spans="1:23">
@@ -8096,10 +8096,10 @@
         <v>0.4172110557556152</v>
       </c>
       <c r="V108" t="n">
-        <v>0.4176304936408997</v>
+        <v>0.5269415378570557</v>
       </c>
       <c r="W108" t="n">
-        <v>1.759281360591558e-07</v>
+        <v>0.01204077899456024</v>
       </c>
     </row>
     <row r="109" spans="1:23">
@@ -8167,10 +8167,10 @@
         <v>0.3928868770599365</v>
       </c>
       <c r="V109" t="n">
-        <v>0.5050956606864929</v>
+        <v>0.8930678367614746</v>
       </c>
       <c r="W109" t="n">
-        <v>0.01259081158787012</v>
+        <v>0.2501809895038605</v>
       </c>
     </row>
     <row r="110" spans="1:23">
@@ -8238,10 +8238,10 @@
         <v>0.3875470161437988</v>
       </c>
       <c r="V110" t="n">
-        <v>0.3720992505550385</v>
+        <v>0.4022523462772369</v>
       </c>
       <c r="W110" t="n">
-        <v>0.0002386334672337398</v>
+        <v>0.0002162467280868441</v>
       </c>
     </row>
     <row r="111" spans="1:23">
@@ -8309,10 +8309,10 @@
         <v>0.390531063079834</v>
       </c>
       <c r="V111" t="n">
-        <v>0.3720975518226624</v>
+        <v>0.5216824412345886</v>
       </c>
       <c r="W111" t="n">
-        <v>0.0003397943510208279</v>
+        <v>0.01720068417489529</v>
       </c>
     </row>
     <row r="112" spans="1:23">
@@ -8380,10 +8380,10 @@
         <v>0.3919789791107178</v>
       </c>
       <c r="V112" t="n">
-        <v>0.4908617734909058</v>
+        <v>0.40044105052948</v>
       </c>
       <c r="W112" t="n">
-        <v>0.00977780669927597</v>
+        <v>7.16066497261636e-05</v>
       </c>
     </row>
     <row r="113" spans="1:23">
@@ -8451,10 +8451,10 @@
         <v>0.3898088932037354</v>
       </c>
       <c r="V113" t="n">
-        <v>0.6538257002830505</v>
+        <v>0.4010257422924042</v>
       </c>
       <c r="W113" t="n">
-        <v>0.06970487534999847</v>
+        <v>0.0001258177071576938</v>
       </c>
     </row>
     <row r="114" spans="1:23">
@@ -8522,10 +8522,10 @@
         <v>0.4471960067749023</v>
       </c>
       <c r="V114" t="n">
-        <v>0.5870922207832336</v>
+        <v>0.893160879611969</v>
       </c>
       <c r="W114" t="n">
-        <v>0.01957095041871071</v>
+        <v>0.1988846659660339</v>
       </c>
     </row>
     <row r="115" spans="1:23">
@@ -8593,10 +8593,10 @@
         <v>0.3903019428253174</v>
       </c>
       <c r="V115" t="n">
-        <v>0.3507571518421173</v>
+        <v>0.517551600933075</v>
       </c>
       <c r="W115" t="n">
-        <v>0.001563790487125516</v>
+        <v>0.01619247533380985</v>
       </c>
     </row>
     <row r="116" spans="1:23">
@@ -8664,10 +8664,10 @@
         <v>0.4055271148681641</v>
       </c>
       <c r="V116" t="n">
-        <v>0.4898227453231812</v>
+        <v>0.8671496510505676</v>
       </c>
       <c r="W116" t="n">
-        <v>0.007105753291398287</v>
+        <v>0.2130953669548035</v>
       </c>
     </row>
     <row r="117" spans="1:23">
@@ -8735,10 +8735,10 @@
         <v>0.3889229297637939</v>
       </c>
       <c r="V117" t="n">
-        <v>0.801636278629303</v>
+        <v>0.4022009968757629</v>
       </c>
       <c r="W117" t="n">
-        <v>0.1703323125839233</v>
+        <v>0.0001763070613378659</v>
       </c>
     </row>
     <row r="118" spans="1:23">
@@ -8806,10 +8806,10 @@
         <v>0.395211935043335</v>
       </c>
       <c r="V118" t="n">
-        <v>0.4637985229492188</v>
+        <v>0.8900213241577148</v>
       </c>
       <c r="W118" t="n">
-        <v>0.004704120103269815</v>
+        <v>0.2448363304138184</v>
       </c>
     </row>
     <row r="119" spans="1:23">
@@ -8877,10 +8877,10 @@
         <v>0.3907198905944824</v>
       </c>
       <c r="V119" t="n">
-        <v>0.3507537245750427</v>
+        <v>0.8670344948768616</v>
       </c>
       <c r="W119" t="n">
-        <v>0.001597294467501342</v>
+        <v>0.2268756031990051</v>
       </c>
     </row>
     <row r="120" spans="1:23">
@@ -8948,10 +8948,10 @@
         <v>0.4368448257446289</v>
       </c>
       <c r="V120" t="n">
-        <v>0.7082430720329285</v>
+        <v>0.8667824864387512</v>
       </c>
       <c r="W120" t="n">
-        <v>0.07365700602531433</v>
+        <v>0.1848463863134384</v>
       </c>
     </row>
     <row r="121" spans="1:23">
@@ -9019,10 +9019,10 @@
         <v>0.3910868167877197</v>
       </c>
       <c r="V121" t="n">
-        <v>0.6926973462104797</v>
+        <v>0.8706657290458679</v>
       </c>
       <c r="W121" t="n">
-        <v>0.09096891433000565</v>
+        <v>0.2299959361553192</v>
       </c>
     </row>
     <row r="122" spans="1:23">
@@ -9090,10 +9090,10 @@
         <v>0.8798351287841797</v>
       </c>
       <c r="V122" t="n">
-        <v>0.5245612859725952</v>
+        <v>0.3999293148517609</v>
       </c>
       <c r="W122" t="n">
-        <v>0.1262194961309433</v>
+        <v>0.2303095906972885</v>
       </c>
     </row>
     <row r="123" spans="1:23">
@@ -9161,10 +9161,10 @@
         <v>0.9314870834350586</v>
       </c>
       <c r="V123" t="n">
-        <v>0.5930236577987671</v>
+        <v>0.8823006153106689</v>
       </c>
       <c r="W123" t="n">
-        <v>0.1145574897527695</v>
+        <v>0.002419308759272099</v>
       </c>
     </row>
     <row r="124" spans="1:23">
@@ -9232,10 +9232,10 @@
         <v>0.8852450847625732</v>
       </c>
       <c r="V124" t="n">
-        <v>0.5821697115898132</v>
+        <v>0.4004852473735809</v>
       </c>
       <c r="W124" t="n">
-        <v>0.09185468405485153</v>
+        <v>0.2349921017885208</v>
       </c>
     </row>
     <row r="125" spans="1:23">
@@ -9303,10 +9303,10 @@
         <v>0.8734269142150879</v>
       </c>
       <c r="V125" t="n">
-        <v>0.800457239151001</v>
+        <v>0.8738042116165161</v>
       </c>
       <c r="W125" t="n">
-        <v>0.005324573256075382</v>
+        <v>1.423533291244894e-07</v>
       </c>
     </row>
     <row r="126" spans="1:23">
@@ -9374,10 +9374,10 @@
         <v>0.8742849826812744</v>
       </c>
       <c r="V126" t="n">
-        <v>0.5052164793014526</v>
+        <v>0.5142396688461304</v>
       </c>
       <c r="W126" t="n">
-        <v>0.136211559176445</v>
+        <v>0.1296326220035553</v>
       </c>
     </row>
     <row r="127" spans="1:23">
@@ -9445,10 +9445,10 @@
         <v>0.873403787612915</v>
       </c>
       <c r="V127" t="n">
-        <v>0.4175451099872589</v>
+        <v>0.8606443405151367</v>
       </c>
       <c r="W127" t="n">
-        <v>0.2078071385622025</v>
+        <v>0.000162803495186381</v>
       </c>
     </row>
     <row r="128" spans="1:23">
@@ -9516,10 +9516,10 @@
         <v>0.8593220710754395</v>
       </c>
       <c r="V128" t="n">
-        <v>0.5947228074073792</v>
+        <v>0.4006092250347137</v>
       </c>
       <c r="W128" t="n">
-        <v>0.07001277059316635</v>
+        <v>0.2104174792766571</v>
       </c>
     </row>
     <row r="129" spans="1:23">
@@ -9587,10 +9587,10 @@
         <v>0.8638341426849365</v>
       </c>
       <c r="V129" t="n">
-        <v>0.5251024961471558</v>
+        <v>0.8820194602012634</v>
       </c>
       <c r="W129" t="n">
-        <v>0.1147391274571419</v>
+        <v>0.0003307057777419686</v>
       </c>
     </row>
     <row r="130" spans="1:23">
@@ -9658,10 +9658,10 @@
         <v>0.8781170845031738</v>
       </c>
       <c r="V130" t="n">
-        <v>0.6539149880409241</v>
+        <v>0.4004675447940826</v>
       </c>
       <c r="W130" t="n">
-        <v>0.0502665787935257</v>
+        <v>0.2281490862369537</v>
       </c>
     </row>
     <row r="131" spans="1:23">
@@ -9729,10 +9729,10 @@
         <v>0.8650071620941162</v>
       </c>
       <c r="V131" t="n">
-        <v>0.5257673263549805</v>
+        <v>0.512414276599884</v>
       </c>
       <c r="W131" t="n">
-        <v>0.1150836646556854</v>
+        <v>0.1243217438459396</v>
       </c>
     </row>
     <row r="132" spans="1:23">
@@ -9800,10 +9800,10 @@
         <v>0.8964998722076416</v>
       </c>
       <c r="V132" t="n">
-        <v>0.5036088228225708</v>
+        <v>0.5263923406600952</v>
       </c>
       <c r="W132" t="n">
-        <v>0.1543633788824081</v>
+        <v>0.1369795799255371</v>
       </c>
     </row>
     <row r="133" spans="1:23">
@@ -9871,10 +9871,10 @@
         <v>0.8889548778533936</v>
       </c>
       <c r="V133" t="n">
-        <v>0.6862813830375671</v>
+        <v>0.5264213085174561</v>
       </c>
       <c r="W133" t="n">
-        <v>0.04107654467225075</v>
+        <v>0.131430596113205</v>
       </c>
     </row>
     <row r="134" spans="1:23">
@@ -9942,10 +9942,10 @@
         <v>0.8646140098571777</v>
       </c>
       <c r="V134" t="n">
-        <v>0.417663037776947</v>
+        <v>0.3990276157855988</v>
       </c>
       <c r="W134" t="n">
-        <v>0.1997651755809784</v>
+        <v>0.2167706936597824</v>
       </c>
     </row>
     <row r="135" spans="1:23">
@@ -10013,10 +10013,10 @@
         <v>0.8637728691101074</v>
       </c>
       <c r="V135" t="n">
-        <v>0.8339731693267822</v>
+        <v>0.399865597486496</v>
       </c>
       <c r="W135" t="n">
-        <v>0.0008880221284925938</v>
+        <v>0.2152099609375</v>
       </c>
     </row>
     <row r="136" spans="1:23">
@@ -10084,10 +10084,10 @@
         <v>0.9245738983154297</v>
       </c>
       <c r="V136" t="n">
-        <v>0.5763152837753296</v>
+        <v>0.4022356867790222</v>
       </c>
       <c r="W136" t="n">
-        <v>0.1212840601801872</v>
+        <v>0.272837221622467</v>
       </c>
     </row>
     <row r="137" spans="1:23">
@@ -10155,10 +10155,10 @@
         <v>0.8660600185394287</v>
       </c>
       <c r="V137" t="n">
-        <v>0.6992341279983521</v>
+        <v>0.566224992275238</v>
       </c>
       <c r="W137" t="n">
-        <v>0.02783087827265263</v>
+        <v>0.08990104496479034</v>
       </c>
     </row>
     <row r="138" spans="1:23">
@@ -10226,10 +10226,10 @@
         <v>0.8682930469512939</v>
       </c>
       <c r="V138" t="n">
-        <v>0.5762090086936951</v>
+        <v>0.52757728099823</v>
       </c>
       <c r="W138" t="n">
-        <v>0.08531308174133301</v>
+        <v>0.1160872355103493</v>
       </c>
     </row>
     <row r="139" spans="1:23">
@@ -10297,10 +10297,10 @@
         <v>0.8637721538543701</v>
       </c>
       <c r="V139" t="n">
-        <v>0.3783542811870575</v>
+        <v>0.5153229236602783</v>
       </c>
       <c r="W139" t="n">
-        <v>0.2356305122375488</v>
+        <v>0.1214168667793274</v>
       </c>
     </row>
     <row r="140" spans="1:23">
@@ -10368,10 +10368,10 @@
         <v>0.9180891513824463</v>
       </c>
       <c r="V140" t="n">
-        <v>0.5038111805915833</v>
+        <v>0.402140736579895</v>
       </c>
       <c r="W140" t="n">
-        <v>0.1716262400150299</v>
+        <v>0.2662027776241302</v>
       </c>
     </row>
     <row r="141" spans="1:23">
@@ -10439,10 +10439,10 @@
         <v>0.8653109073638916</v>
       </c>
       <c r="V141" t="n">
-        <v>0.4906497597694397</v>
+        <v>0.3990135788917542</v>
       </c>
       <c r="W141" t="n">
-        <v>0.1403709799051285</v>
+        <v>0.2174331992864609</v>
       </c>
     </row>
     <row r="142" spans="1:23">
@@ -10510,10 +10510,10 @@
         <v>0.5221939086914062</v>
       </c>
       <c r="V142" t="n">
-        <v>0.5258046388626099</v>
+        <v>0.5197014808654785</v>
       </c>
       <c r="W142" t="n">
-        <v>1.303737280977657e-05</v>
+        <v>6.212196240085177e-06</v>
       </c>
     </row>
     <row r="143" spans="1:23">
@@ -10581,10 +10581,10 @@
         <v>0.5186688899993896</v>
       </c>
       <c r="V143" t="n">
-        <v>0.4903136193752289</v>
+        <v>0.5153591632843018</v>
       </c>
       <c r="W143" t="n">
-        <v>0.0008040213724598289</v>
+        <v>1.09542907011928e-05</v>
       </c>
     </row>
     <row r="144" spans="1:23">
@@ -10652,10 +10652,10 @@
         <v>0.5193691253662109</v>
       </c>
       <c r="V144" t="n">
-        <v>0.9760792851448059</v>
+        <v>0.4000304341316223</v>
       </c>
       <c r="W144" t="n">
-        <v>0.2085841745138168</v>
+        <v>0.01424172334372997</v>
       </c>
     </row>
     <row r="145" spans="1:23">
@@ -10723,10 +10723,10 @@
         <v>0.5721490383148193</v>
       </c>
       <c r="V145" t="n">
-        <v>0.653493344783783</v>
+        <v>0.8804817199707031</v>
       </c>
       <c r="W145" t="n">
-        <v>0.006616896018385887</v>
+        <v>0.0950690433382988</v>
       </c>
     </row>
     <row r="146" spans="1:23">
@@ -10794,10 +10794,10 @@
         <v>0.5216062068939209</v>
       </c>
       <c r="V146" t="n">
-        <v>0.4907905161380768</v>
+        <v>0.868143618106842</v>
       </c>
       <c r="W146" t="n">
-        <v>0.0009496068232692778</v>
+        <v>0.1200881749391556</v>
       </c>
     </row>
     <row r="147" spans="1:23">
@@ -10865,10 +10865,10 @@
         <v>0.5303308963775635</v>
       </c>
       <c r="V147" t="n">
-        <v>0.5247749090194702</v>
+        <v>0.5267453789710999</v>
       </c>
       <c r="W147" t="n">
-        <v>3.086899596382864e-05</v>
+        <v>1.285593498323578e-05</v>
       </c>
     </row>
     <row r="148" spans="1:23">
@@ -10936,10 +10936,10 @@
         <v>0.5197420120239258</v>
       </c>
       <c r="V148" t="n">
-        <v>0.5826015472412109</v>
+        <v>0.4004755318164825</v>
       </c>
       <c r="W148" t="n">
-        <v>0.003951321355998516</v>
+        <v>0.01422449294477701</v>
       </c>
     </row>
     <row r="149" spans="1:23">
@@ -11007,10 +11007,10 @@
         <v>0.5183150768280029</v>
       </c>
       <c r="V149" t="n">
-        <v>0.5049243569374084</v>
+        <v>0.5275765061378479</v>
       </c>
       <c r="W149" t="n">
-        <v>0.0001793113769963384</v>
+        <v>8.577407425036654e-05</v>
       </c>
     </row>
     <row r="150" spans="1:23">
@@ -11078,10 +11078,10 @@
         <v>0.5188820362091064</v>
       </c>
       <c r="V150" t="n">
-        <v>0.5247950553894043</v>
+        <v>0.5209001302719116</v>
       </c>
       <c r="W150" t="n">
-        <v>3.496379576972686e-05</v>
+        <v>4.072703632118646e-06</v>
       </c>
     </row>
     <row r="151" spans="1:23">
@@ -11149,10 +11149,10 @@
         <v>0.5194129943847656</v>
       </c>
       <c r="V151" t="n">
-        <v>0.3720111846923828</v>
+        <v>0.8742431402206421</v>
       </c>
       <c r="W151" t="n">
-        <v>0.0217272937297821</v>
+        <v>0.1259044259786606</v>
       </c>
     </row>
     <row r="152" spans="1:23">
@@ -11220,10 +11220,10 @@
         <v>0.5183200836181641</v>
       </c>
       <c r="V152" t="n">
-        <v>0.4176340699195862</v>
+        <v>0.8722015619277954</v>
       </c>
       <c r="W152" t="n">
-        <v>0.01013767346739769</v>
+        <v>0.1252321004867554</v>
       </c>
     </row>
     <row r="153" spans="1:23">
@@ -11291,10 +11291,10 @@
         <v>0.5253081321716309</v>
       </c>
       <c r="V153" t="n">
-        <v>0.6531110405921936</v>
+        <v>0.8704211711883545</v>
       </c>
       <c r="W153" t="n">
-        <v>0.01633358374238014</v>
+        <v>0.1191030070185661</v>
       </c>
     </row>
     <row r="154" spans="1:23">
@@ -11362,10 +11362,10 @@
         <v>0.5175631046295166</v>
       </c>
       <c r="V154" t="n">
-        <v>0.3785795569419861</v>
+        <v>0.5150957107543945</v>
       </c>
       <c r="W154" t="n">
-        <v>0.0193164274096489</v>
+        <v>6.088032478146488e-06</v>
       </c>
     </row>
     <row r="155" spans="1:23">
@@ -11433,10 +11433,10 @@
         <v>0.5535330772399902</v>
       </c>
       <c r="V155" t="n">
-        <v>0.8046363592147827</v>
+        <v>0.8901782631874084</v>
       </c>
       <c r="W155" t="n">
-        <v>0.06305285543203354</v>
+        <v>0.1133299842476845</v>
       </c>
     </row>
     <row r="156" spans="1:23">
@@ -11504,10 +11504,10 @@
         <v>0.5701320171356201</v>
       </c>
       <c r="V156" t="n">
-        <v>0.4175422191619873</v>
+        <v>0.8672805428504944</v>
       </c>
       <c r="W156" t="n">
-        <v>0.02328364737331867</v>
+        <v>0.08829724788665771</v>
       </c>
     </row>
     <row r="157" spans="1:23">
@@ -11575,10 +11575,10 @@
         <v>0.5196771621704102</v>
       </c>
       <c r="V157" t="n">
-        <v>0.4634905457496643</v>
+        <v>0.4005732834339142</v>
       </c>
       <c r="W157" t="n">
-        <v>0.003156935796141624</v>
+        <v>0.01418573409318924</v>
       </c>
     </row>
     <row r="158" spans="1:23">
@@ -11646,10 +11646,10 @@
         <v>0.5214629173278809</v>
       </c>
       <c r="V158" t="n">
-        <v>0.4176313579082489</v>
+        <v>0.3999392688274384</v>
       </c>
       <c r="W158" t="n">
-        <v>0.0107809929177165</v>
+        <v>0.01476799696683884</v>
       </c>
     </row>
     <row r="159" spans="1:23">
@@ -11717,10 +11717,10 @@
         <v>0.5162808895111084</v>
       </c>
       <c r="V159" t="n">
-        <v>0.5823945999145508</v>
+        <v>0.4011171460151672</v>
       </c>
       <c r="W159" t="n">
-        <v>0.004371022805571556</v>
+        <v>0.01326268818229437</v>
       </c>
     </row>
     <row r="160" spans="1:23">
@@ -11788,10 +11788,10 @@
         <v>0.5180668830871582</v>
       </c>
       <c r="V160" t="n">
-        <v>0.8028735518455505</v>
+        <v>0.8878200650215149</v>
       </c>
       <c r="W160" t="n">
-        <v>0.08111483603715897</v>
+        <v>0.1367174088954926</v>
       </c>
     </row>
     <row r="161" spans="1:23">
@@ -11859,10 +11859,10 @@
         <v>0.5511000156402588</v>
       </c>
       <c r="V161" t="n">
-        <v>0.6928427815437317</v>
+        <v>0.4011460244655609</v>
       </c>
       <c r="W161" t="n">
-        <v>0.02009101212024689</v>
+        <v>0.02248619869351387</v>
       </c>
     </row>
     <row r="162" spans="1:23">
@@ -11930,10 +11930,10 @@
         <v>0.3945629596710205</v>
       </c>
       <c r="V162" t="n">
-        <v>0.8022168874740601</v>
+        <v>0.8708302974700928</v>
       </c>
       <c r="W162" t="n">
-        <v>0.1661817282438278</v>
+        <v>0.2268305718898773</v>
       </c>
     </row>
     <row r="163" spans="1:23">
@@ -12001,10 +12001,10 @@
         <v>0.3912858963012695</v>
       </c>
       <c r="V163" t="n">
-        <v>0.6535565853118896</v>
+        <v>0.5286046266555786</v>
       </c>
       <c r="W163" t="n">
-        <v>0.06878591328859329</v>
+        <v>0.01885643415153027</v>
       </c>
     </row>
     <row r="164" spans="1:23">
@@ -12072,10 +12072,10 @@
         <v>0.3917369842529297</v>
       </c>
       <c r="V164" t="n">
-        <v>0.6535240411758423</v>
+        <v>0.4010473191738129</v>
       </c>
       <c r="W164" t="n">
-        <v>0.06853246688842773</v>
+        <v>8.668233931530267e-05</v>
       </c>
     </row>
     <row r="165" spans="1:23">
@@ -12143,10 +12143,10 @@
         <v>0.3942949771881104</v>
       </c>
       <c r="V165" t="n">
-        <v>0.5870838761329651</v>
+        <v>0.3998881280422211</v>
       </c>
       <c r="W165" t="n">
-        <v>0.03716756030917168</v>
+        <v>3.128333628410473e-05</v>
       </c>
     </row>
     <row r="166" spans="1:23">
@@ -12214,10 +12214,10 @@
         <v>0.4124469757080078</v>
       </c>
       <c r="V166" t="n">
-        <v>0.5054473876953125</v>
+        <v>0.5179101228713989</v>
       </c>
       <c r="W166" t="n">
-        <v>0.008649076335132122</v>
+        <v>0.01112247537821531</v>
       </c>
     </row>
     <row r="167" spans="1:23">
@@ -12285,10 +12285,10 @@
         <v>0.3934979438781738</v>
       </c>
       <c r="V167" t="n">
-        <v>0.4903903901576996</v>
+        <v>0.8875837922096252</v>
       </c>
       <c r="W167" t="n">
-        <v>0.009388145990669727</v>
+        <v>0.2441208213567734</v>
       </c>
     </row>
     <row r="168" spans="1:23">
@@ -12356,10 +12356,10 @@
         <v>0.3904471397399902</v>
       </c>
       <c r="V168" t="n">
-        <v>0.4638583362102509</v>
+        <v>0.4006094038486481</v>
       </c>
       <c r="W168" t="n">
-        <v>0.005389203783124685</v>
+        <v>0.0001032716099871323</v>
       </c>
     </row>
     <row r="169" spans="1:23">
@@ -12427,10 +12427,10 @@
         <v>0.3929500579833984</v>
       </c>
       <c r="V169" t="n">
-        <v>0.3895606100559235</v>
+        <v>0.4004825055599213</v>
       </c>
       <c r="W169" t="n">
-        <v>1.148835690401029e-05</v>
+        <v>5.673776468029246e-05</v>
       </c>
     </row>
     <row r="170" spans="1:23">
@@ -12498,10 +12498,10 @@
         <v>0.3924829959869385</v>
       </c>
       <c r="V170" t="n">
-        <v>0.490833193063736</v>
+        <v>0.4010172188282013</v>
       </c>
       <c r="W170" t="n">
-        <v>0.009672760963439941</v>
+        <v>7.283296145033091e-05</v>
       </c>
     </row>
     <row r="171" spans="1:23">
@@ -12569,10 +12569,10 @@
         <v>0.3917419910430908</v>
       </c>
       <c r="V171" t="n">
-        <v>0.5248926877975464</v>
+        <v>0.8747601509094238</v>
       </c>
       <c r="W171" t="n">
-        <v>0.01772910729050636</v>
+        <v>0.2333065420389175</v>
       </c>
     </row>
     <row r="172" spans="1:23">
@@ -12640,10 +12640,10 @@
         <v>0.4212939739227295</v>
       </c>
       <c r="V172" t="n">
-        <v>0.4638231992721558</v>
+        <v>0.8727347254753113</v>
       </c>
       <c r="W172" t="n">
-        <v>0.001808734959922731</v>
+        <v>0.2037987560033798</v>
       </c>
     </row>
     <row r="173" spans="1:23">
@@ -12711,10 +12711,10 @@
         <v>0.3928179740905762</v>
       </c>
       <c r="V173" t="n">
-        <v>0.4907240867614746</v>
+        <v>0.8834117650985718</v>
       </c>
       <c r="W173" t="n">
-        <v>0.00958560686558485</v>
+        <v>0.2406822741031647</v>
       </c>
     </row>
     <row r="174" spans="1:23">
@@ -12782,10 +12782,10 @@
         <v>0.3930799961090088</v>
       </c>
       <c r="V174" t="n">
-        <v>0.4615276753902435</v>
+        <v>0.3990194797515869</v>
       </c>
       <c r="W174" t="n">
-        <v>0.00468508480116725</v>
+        <v>3.527746594045311e-05</v>
       </c>
     </row>
     <row r="175" spans="1:23">
@@ -12853,10 +12853,10 @@
         <v>0.3947649002075195</v>
       </c>
       <c r="V175" t="n">
-        <v>0.3470315337181091</v>
+        <v>0.4004567563533783</v>
       </c>
       <c r="W175" t="n">
-        <v>0.00227847439236939</v>
+        <v>3.23972271871753e-05</v>
       </c>
     </row>
     <row r="176" spans="1:23">
@@ -12924,10 +12924,10 @@
         <v>0.3946590423583984</v>
       </c>
       <c r="V176" t="n">
-        <v>0.590633749961853</v>
+        <v>0.4011123180389404</v>
       </c>
       <c r="W176" t="n">
-        <v>0.03840608522295952</v>
+        <v>4.164476558798924e-05</v>
       </c>
     </row>
     <row r="177" spans="1:23">
@@ -12995,10 +12995,10 @@
         <v>0.4033279418945312</v>
       </c>
       <c r="V177" t="n">
-        <v>0.4691958427429199</v>
+        <v>0.5221199989318848</v>
       </c>
       <c r="W177" t="n">
-        <v>0.004338580183684826</v>
+        <v>0.01411155238747597</v>
       </c>
     </row>
     <row r="178" spans="1:23">
@@ -13066,10 +13066,10 @@
         <v>0.3978321552276611</v>
       </c>
       <c r="V178" t="n">
-        <v>0.4175398349761963</v>
+        <v>0.400450736284256</v>
       </c>
       <c r="W178" t="n">
-        <v>0.0003883926547132432</v>
+        <v>6.856966592749814e-06</v>
       </c>
     </row>
     <row r="179" spans="1:23">
@@ -13137,10 +13137,10 @@
         <v>0.3914198875427246</v>
       </c>
       <c r="V179" t="n">
-        <v>0.699232816696167</v>
+        <v>0.5246584415435791</v>
       </c>
       <c r="W179" t="n">
-        <v>0.09474880248308182</v>
+        <v>0.01775251142680645</v>
       </c>
     </row>
     <row r="180" spans="1:23">
@@ -13208,10 +13208,10 @@
         <v>0.4155261516571045</v>
       </c>
       <c r="V180" t="n">
-        <v>0.6538669466972351</v>
+        <v>0.5141370296478271</v>
       </c>
       <c r="W180" t="n">
-        <v>0.05680633336305618</v>
+        <v>0.009724105708301067</v>
       </c>
     </row>
     <row r="181" spans="1:23">
@@ -13279,10 +13279,10 @@
         <v>0.4084370136260986</v>
       </c>
       <c r="V181" t="n">
-        <v>0.6547797918319702</v>
+        <v>0.8642939925193787</v>
       </c>
       <c r="W181" t="n">
-        <v>0.06068476289510727</v>
+        <v>0.2078055888414383</v>
       </c>
     </row>
     <row r="182" spans="1:23">
@@ -13350,10 +13350,10 @@
         <v>0.8756601810455322</v>
       </c>
       <c r="V182" t="n">
-        <v>0.8047276735305786</v>
+        <v>0.3998701572418213</v>
       </c>
       <c r="W182" t="n">
-        <v>0.005031420849263668</v>
+        <v>0.2263761460781097</v>
       </c>
     </row>
     <row r="183" spans="1:23">
@@ -13421,10 +13421,10 @@
         <v>0.8943839073181152</v>
       </c>
       <c r="V183" t="n">
-        <v>0.9760575294494629</v>
+        <v>0.5158435702323914</v>
       </c>
       <c r="W183" t="n">
-        <v>0.006670580711215734</v>
+        <v>0.1432927846908569</v>
       </c>
     </row>
     <row r="184" spans="1:23">
@@ -13492,10 +13492,10 @@
         <v>0.9345049858093262</v>
       </c>
       <c r="V184" t="n">
-        <v>0.8414528369903564</v>
+        <v>0.8712086081504822</v>
       </c>
       <c r="W184" t="n">
-        <v>0.008658702485263348</v>
+        <v>0.004006431438028812</v>
       </c>
     </row>
     <row r="185" spans="1:23">
@@ -13563,10 +13563,10 @@
         <v>0.8672759532928467</v>
       </c>
       <c r="V185" t="n">
-        <v>0.9752137064933777</v>
+        <v>0.5235797166824341</v>
       </c>
       <c r="W185" t="n">
-        <v>0.01165055856108665</v>
+        <v>0.1181271001696587</v>
       </c>
     </row>
     <row r="186" spans="1:23">
@@ -13634,10 +13634,10 @@
         <v>0.868955135345459</v>
       </c>
       <c r="V186" t="n">
-        <v>0.9755959510803223</v>
+        <v>0.4001574218273163</v>
       </c>
       <c r="W186" t="n">
-        <v>0.01137226354330778</v>
+        <v>0.2197712957859039</v>
       </c>
     </row>
     <row r="187" spans="1:23">
@@ -13705,10 +13705,10 @@
         <v>0.8733510971069336</v>
       </c>
       <c r="V187" t="n">
-        <v>0.5825173258781433</v>
+        <v>0.8739687204360962</v>
       </c>
       <c r="W187" t="n">
-        <v>0.08458428084850311</v>
+        <v>3.814585625150357e-07</v>
       </c>
     </row>
     <row r="188" spans="1:23">
@@ -13776,10 +13776,10 @@
         <v>0.9259741306304932</v>
       </c>
       <c r="V188" t="n">
-        <v>0.4611094295978546</v>
+        <v>0.5060003399848938</v>
       </c>
       <c r="W188" t="n">
-        <v>0.2160991877317429</v>
+        <v>0.1763779819011688</v>
       </c>
     </row>
     <row r="189" spans="1:23">
@@ -13847,10 +13847,10 @@
         <v>0.8681478500366211</v>
       </c>
       <c r="V189" t="n">
-        <v>0.5908746719360352</v>
+        <v>0.3994730114936829</v>
       </c>
       <c r="W189" t="n">
-        <v>0.07688041776418686</v>
+        <v>0.2196561098098755</v>
       </c>
     </row>
     <row r="190" spans="1:23">
@@ -13918,10 +13918,10 @@
         <v>0.8662369251251221</v>
       </c>
       <c r="V190" t="n">
-        <v>0.5245877504348755</v>
+        <v>0.5200419425964355</v>
       </c>
       <c r="W190" t="n">
-        <v>0.1167241558432579</v>
+        <v>0.1198509633541107</v>
       </c>
     </row>
     <row r="191" spans="1:23">
@@ -13989,10 +13989,10 @@
         <v>0.8891890048980713</v>
       </c>
       <c r="V191" t="n">
-        <v>0.3710145056247711</v>
+        <v>0.5239245891571045</v>
       </c>
       <c r="W191" t="n">
-        <v>0.2685048282146454</v>
+        <v>0.1334180980920792</v>
       </c>
     </row>
     <row r="192" spans="1:23">
@@ -14060,10 +14060,10 @@
         <v>0.9151740074157715</v>
       </c>
       <c r="V192" t="n">
-        <v>0.4175129532814026</v>
+        <v>0.870266854763031</v>
       </c>
       <c r="W192" t="n">
-        <v>0.247666522860527</v>
+        <v>0.002016652375459671</v>
       </c>
     </row>
     <row r="193" spans="1:23">
@@ -14131,10 +14131,10 @@
         <v>0.8647229671478271</v>
       </c>
       <c r="V193" t="n">
-        <v>0.5050196051597595</v>
+        <v>0.5307104587554932</v>
       </c>
       <c r="W193" t="n">
-        <v>0.1293865144252777</v>
+        <v>0.1115643531084061</v>
       </c>
     </row>
     <row r="194" spans="1:23">
@@ -14202,10 +14202,10 @@
         <v>0.8653371334075928</v>
       </c>
       <c r="V194" t="n">
-        <v>0.4176348447799683</v>
+        <v>0.8745934963226318</v>
       </c>
       <c r="W194" t="n">
-        <v>0.2004373371601105</v>
+        <v>8.568025077693164e-05</v>
       </c>
     </row>
     <row r="195" spans="1:23">
@@ -14273,10 +14273,10 @@
         <v>0.8630771636962891</v>
       </c>
       <c r="V195" t="n">
-        <v>0.4897371828556061</v>
+        <v>0.8650694489479065</v>
       </c>
       <c r="W195" t="n">
-        <v>0.1393827348947525</v>
+        <v>3.969200406572782e-06</v>
       </c>
     </row>
     <row r="196" spans="1:23">
@@ -14344,10 +14344,10 @@
         <v>0.9223558902740479</v>
       </c>
       <c r="V196" t="n">
-        <v>0.8045668601989746</v>
+        <v>0.3994659185409546</v>
       </c>
       <c r="W196" t="n">
-        <v>0.01387425605207682</v>
+        <v>0.2734139263629913</v>
       </c>
     </row>
     <row r="197" spans="1:23">
@@ -14415,10 +14415,10 @@
         <v>0.863368034362793</v>
       </c>
       <c r="V197" t="n">
-        <v>0.8341045379638672</v>
+        <v>0.3990351557731628</v>
       </c>
       <c r="W197" t="n">
-        <v>0.0008563522133044899</v>
+        <v>0.2156050205230713</v>
       </c>
     </row>
     <row r="198" spans="1:23">
@@ -14486,10 +14486,10 @@
         <v>0.8847129344940186</v>
       </c>
       <c r="V198" t="n">
-        <v>0.6521576642990112</v>
+        <v>0.8700835704803467</v>
       </c>
       <c r="W198" t="n">
-        <v>0.05408195406198502</v>
+        <v>0.0002140182914445177</v>
       </c>
     </row>
     <row r="199" spans="1:23">
@@ -14557,10 +14557,10 @@
         <v>0.862015962600708</v>
       </c>
       <c r="V199" t="n">
-        <v>0.5760191679000854</v>
+        <v>0.4011476635932922</v>
       </c>
       <c r="W199" t="n">
-        <v>0.08179416507482529</v>
+        <v>0.2123995870351791</v>
       </c>
     </row>
     <row r="200" spans="1:23">
@@ -14628,10 +14628,10 @@
         <v>0.916085958480835</v>
       </c>
       <c r="V200" t="n">
-        <v>0.6926920413970947</v>
+        <v>0.5181466341018677</v>
       </c>
       <c r="W200" t="n">
-        <v>0.04990484192967415</v>
+        <v>0.158355712890625</v>
       </c>
     </row>
     <row r="201" spans="1:23">
@@ -14699,10 +14699,10 @@
         <v>0.8855190277099609</v>
       </c>
       <c r="V201" t="n">
-        <v>0.3720027506351471</v>
+        <v>0.8728016018867493</v>
       </c>
       <c r="W201" t="n">
-        <v>0.2636989951133728</v>
+        <v>0.0001617329253349453</v>
       </c>
     </row>
     <row r="202" spans="1:23">
@@ -14770,10 +14770,10 @@
         <v>0.5186710357666016</v>
       </c>
       <c r="V202" t="n">
-        <v>0.7035837173461914</v>
+        <v>0.532001256942749</v>
       </c>
       <c r="W202" t="n">
-        <v>0.03419269993901253</v>
+        <v>0.0001776947901817039</v>
       </c>
     </row>
     <row r="203" spans="1:23">
@@ -14841,10 +14841,10 @@
         <v>0.5278110504150391</v>
       </c>
       <c r="V203" t="n">
-        <v>0.4176412224769592</v>
+        <v>0.4026001989841461</v>
       </c>
       <c r="W203" t="n">
-        <v>0.01213739067316055</v>
+        <v>0.01567775756120682</v>
       </c>
     </row>
     <row r="204" spans="1:23">
@@ -14912,10 +14912,10 @@
         <v>0.5287308692932129</v>
       </c>
       <c r="V204" t="n">
-        <v>0.6543192863464355</v>
+        <v>0.8657189607620239</v>
       </c>
       <c r="W204" t="n">
-        <v>0.01577245071530342</v>
+        <v>0.1135609745979309</v>
       </c>
     </row>
     <row r="205" spans="1:23">
@@ -14983,10 +14983,10 @@
         <v>0.5565071105957031</v>
       </c>
       <c r="V205" t="n">
-        <v>0.6992213726043701</v>
+        <v>0.8821470737457275</v>
       </c>
       <c r="W205" t="n">
-        <v>0.02036735974252224</v>
+        <v>0.1060413867235184</v>
       </c>
     </row>
     <row r="206" spans="1:23">
@@ -15054,10 +15054,10 @@
         <v>0.5174281597137451</v>
       </c>
       <c r="V206" t="n">
-        <v>0.8046457171440125</v>
+        <v>0.8982092142105103</v>
       </c>
       <c r="W206" t="n">
-        <v>0.08249392360448837</v>
+        <v>0.1449942141771317</v>
       </c>
     </row>
     <row r="207" spans="1:23">
@@ -15125,10 +15125,10 @@
         <v>0.5194098949432373</v>
       </c>
       <c r="V207" t="n">
-        <v>0.4176654517650604</v>
+        <v>0.5268937945365906</v>
       </c>
       <c r="W207" t="n">
-        <v>0.01035193167626858</v>
+        <v>5.600875374511816e-05</v>
       </c>
     </row>
     <row r="208" spans="1:23">
@@ -15196,10 +15196,10 @@
         <v>0.5184791088104248</v>
       </c>
       <c r="V208" t="n">
-        <v>0.4634853303432465</v>
+        <v>0.399221271276474</v>
       </c>
       <c r="W208" t="n">
-        <v>0.003024315694347024</v>
+        <v>0.01422243192791939</v>
       </c>
     </row>
     <row r="209" spans="1:23">
@@ -15267,10 +15267,10 @@
         <v>0.5168070793151855</v>
       </c>
       <c r="V209" t="n">
-        <v>0.3470365405082703</v>
+        <v>0.4022054970264435</v>
       </c>
       <c r="W209" t="n">
-        <v>0.028822036460042</v>
+        <v>0.01313352305442095</v>
       </c>
     </row>
     <row r="210" spans="1:23">
@@ -15338,10 +15338,10 @@
         <v>0.5709750652313232</v>
       </c>
       <c r="V210" t="n">
-        <v>0.5406032800674438</v>
+        <v>0.5153124332427979</v>
       </c>
       <c r="W210" t="n">
-        <v>0.0009224453242495656</v>
+        <v>0.003098328597843647</v>
       </c>
     </row>
     <row r="211" spans="1:23">
@@ -15409,10 +15409,10 @@
         <v>0.5220320224761963</v>
       </c>
       <c r="V211" t="n">
-        <v>0.4908800721168518</v>
+        <v>0.8746933341026306</v>
       </c>
       <c r="W211" t="n">
-        <v>0.0009704440017230809</v>
+        <v>0.1243700012564659</v>
       </c>
     </row>
     <row r="212" spans="1:23">
@@ -15480,10 +15480,10 @@
         <v>0.5218250751495361</v>
       </c>
       <c r="V212" t="n">
-        <v>0.5908601880073547</v>
+        <v>0.8863624930381775</v>
       </c>
       <c r="W212" t="n">
-        <v>0.004765846766531467</v>
+        <v>0.132887527346611</v>
       </c>
     </row>
     <row r="213" spans="1:23">
@@ -15551,10 +15551,10 @@
         <v>0.5204401016235352</v>
       </c>
       <c r="V213" t="n">
-        <v>0.3507513999938965</v>
+        <v>0.5156366229057312</v>
       </c>
       <c r="W213" t="n">
-        <v>0.02879425510764122</v>
+        <v>2.307340764673427e-05</v>
       </c>
     </row>
     <row r="214" spans="1:23">
@@ -15622,10 +15622,10 @@
         <v>0.521388053894043</v>
       </c>
       <c r="V214" t="n">
-        <v>0.5249706506729126</v>
+        <v>0.8713333010673523</v>
       </c>
       <c r="W214" t="n">
-        <v>1.283499932469567e-05</v>
+        <v>0.1224616765975952</v>
       </c>
     </row>
     <row r="215" spans="1:23">
@@ -15693,10 +15693,10 @@
         <v>0.5228838920593262</v>
       </c>
       <c r="V215" t="n">
-        <v>0.4896917641162872</v>
+        <v>0.3998710513114929</v>
       </c>
       <c r="W215" t="n">
-        <v>0.001101717352867126</v>
+        <v>0.01513215899467468</v>
       </c>
     </row>
     <row r="216" spans="1:23">
@@ -15764,10 +15764,10 @@
         <v>0.5268149375915527</v>
       </c>
       <c r="V216" t="n">
-        <v>0.5058352947235107</v>
+        <v>0.3990349769592285</v>
       </c>
       <c r="W216" t="n">
-        <v>0.0004401454061735421</v>
+        <v>0.01632771827280521</v>
       </c>
     </row>
     <row r="217" spans="1:23">
@@ -15835,10 +15835,10 @@
         <v>0.5190198421478271</v>
       </c>
       <c r="V217" t="n">
-        <v>0.838257908821106</v>
+        <v>0.4005506336688995</v>
       </c>
       <c r="W217" t="n">
-        <v>0.1019129455089569</v>
+        <v>0.01403495296835899</v>
       </c>
     </row>
     <row r="218" spans="1:23">
@@ -15906,10 +15906,10 @@
         <v>0.518934965133667</v>
       </c>
       <c r="V218" t="n">
-        <v>0.6507607698440552</v>
+        <v>0.5259839296340942</v>
       </c>
       <c r="W218" t="n">
-        <v>0.01737804338335991</v>
+        <v>4.968790017301217e-05</v>
       </c>
     </row>
     <row r="219" spans="1:23">
@@ -15977,10 +15977,10 @@
         <v>0.522468090057373</v>
       </c>
       <c r="V219" t="n">
-        <v>0.5051002502441406</v>
+        <v>0.8746486306190491</v>
       </c>
       <c r="W219" t="n">
-        <v>0.0003016418486367911</v>
+        <v>0.1240311339497566</v>
       </c>
     </row>
     <row r="220" spans="1:23">
@@ -16048,10 +16048,10 @@
         <v>0.5221879482269287</v>
       </c>
       <c r="V220" t="n">
-        <v>0.4615108966827393</v>
+        <v>0.4963667094707489</v>
       </c>
       <c r="W220" t="n">
-        <v>0.003681704634800553</v>
+        <v>0.0006667363923043013</v>
       </c>
     </row>
     <row r="221" spans="1:23">
@@ -16119,10 +16119,10 @@
         <v>0.57470703125</v>
       </c>
       <c r="V221" t="n">
-        <v>0.3778701424598694</v>
+        <v>0.5230100154876709</v>
       </c>
       <c r="W221" t="n">
-        <v>0.03874476253986359</v>
+        <v>0.002672581467777491</v>
       </c>
     </row>
     <row r="222" spans="1:23">
@@ -16190,10 +16190,10 @@
         <v>0.3919291496276855</v>
       </c>
       <c r="V222" t="n">
-        <v>0.3507855832576752</v>
+        <v>0.4011309146881104</v>
       </c>
       <c r="W222" t="n">
-        <v>0.001692793099209666</v>
+        <v>8.467247971566394e-05</v>
       </c>
     </row>
     <row r="223" spans="1:23">
@@ -16261,10 +16261,10 @@
         <v>0.3895421028137207</v>
       </c>
       <c r="V223" t="n">
-        <v>0.9755939245223999</v>
+        <v>0.5262842178344727</v>
       </c>
       <c r="W223" t="n">
-        <v>0.3434567451477051</v>
+        <v>0.01869840547442436</v>
       </c>
     </row>
     <row r="224" spans="1:23">
@@ -16332,10 +16332,10 @@
         <v>0.3918740749359131</v>
       </c>
       <c r="V224" t="n">
-        <v>0.4611299932003021</v>
+        <v>0.8689618110656738</v>
       </c>
       <c r="W224" t="n">
-        <v>0.004796382039785385</v>
+        <v>0.22761270403862</v>
       </c>
     </row>
     <row r="225" spans="1:23">
@@ -16403,10 +16403,10 @@
         <v>0.390617847442627</v>
       </c>
       <c r="V225" t="n">
-        <v>0.4907757639884949</v>
+        <v>0.8872377276420593</v>
       </c>
       <c r="W225" t="n">
-        <v>0.01003160793334246</v>
+        <v>0.2466313093900681</v>
       </c>
     </row>
     <row r="226" spans="1:23">
@@ -16474,10 +16474,10 @@
         <v>0.3914999961853027</v>
       </c>
       <c r="V226" t="n">
-        <v>0.5762905478477478</v>
+        <v>0.3990112245082855</v>
       </c>
       <c r="W226" t="n">
-        <v>0.03414754942059517</v>
+        <v>5.641855022986419e-05</v>
       </c>
     </row>
     <row r="227" spans="1:23">
@@ -16545,10 +16545,10 @@
         <v>0.4559750556945801</v>
       </c>
       <c r="V227" t="n">
-        <v>0.3721317946910858</v>
+        <v>0.4004486501216888</v>
       </c>
       <c r="W227" t="n">
-        <v>0.007029692642390728</v>
+        <v>0.003083181800320745</v>
       </c>
     </row>
     <row r="228" spans="1:23">
@@ -16616,10 +16616,10 @@
         <v>0.394665002822876</v>
       </c>
       <c r="V228" t="n">
-        <v>0.6538190245628357</v>
+        <v>0.4000290632247925</v>
       </c>
       <c r="W228" t="n">
-        <v>0.06716080754995346</v>
+        <v>2.877314364013728e-05</v>
       </c>
     </row>
     <row r="229" spans="1:23">
@@ -16687,10 +16687,10 @@
         <v>0.3966531753540039</v>
       </c>
       <c r="V229" t="n">
-        <v>0.975210964679718</v>
+        <v>0.8785406351089478</v>
       </c>
       <c r="W229" t="n">
-        <v>0.3347291052341461</v>
+        <v>0.2322155237197876</v>
       </c>
     </row>
     <row r="230" spans="1:23">
@@ -16758,10 +16758,10 @@
         <v>0.3929951190948486</v>
       </c>
       <c r="V230" t="n">
-        <v>0.405481219291687</v>
+        <v>0.5218856334686279</v>
       </c>
       <c r="W230" t="n">
-        <v>0.0001559027004987001</v>
+        <v>0.01661276444792747</v>
       </c>
     </row>
     <row r="231" spans="1:23">
@@ -16829,10 +16829,10 @@
         <v>0.3921401500701904</v>
       </c>
       <c r="V231" t="n">
-        <v>0.5030666589736938</v>
+        <v>0.8840639591217041</v>
       </c>
       <c r="W231" t="n">
-        <v>0.01230469066649675</v>
+        <v>0.2419890314340591</v>
       </c>
     </row>
     <row r="232" spans="1:23">
@@ -16900,10 +16900,10 @@
         <v>0.4185080528259277</v>
       </c>
       <c r="V232" t="n">
-        <v>0.8023541569709778</v>
+        <v>0.5231483578681946</v>
       </c>
       <c r="W232" t="n">
-        <v>0.1473378390073776</v>
+        <v>0.01094959303736687</v>
       </c>
     </row>
     <row r="233" spans="1:23">
@@ -16971,10 +16971,10 @@
         <v>0.4497950077056885</v>
       </c>
       <c r="V233" t="n">
-        <v>0.4908333420753479</v>
+        <v>0.8863497376441956</v>
       </c>
       <c r="W233" t="n">
-        <v>0.001684144837781787</v>
+        <v>0.1905800253152847</v>
       </c>
     </row>
     <row r="234" spans="1:23">
@@ -17042,10 +17042,10 @@
         <v>0.3949410915374756</v>
       </c>
       <c r="V234" t="n">
-        <v>0.3887981772422791</v>
+        <v>0.8874190449714661</v>
       </c>
       <c r="W234" t="n">
-        <v>3.773539719986729e-05</v>
+        <v>0.2425345331430435</v>
       </c>
     </row>
     <row r="235" spans="1:23">
@@ -17113,10 +17113,10 @@
         <v>0.3956999778747559</v>
       </c>
       <c r="V235" t="n">
-        <v>0.5946947336196899</v>
+        <v>0.3990366756916046</v>
       </c>
       <c r="W235" t="n">
-        <v>0.03959891200065613</v>
+        <v>1.113355210691225e-05</v>
       </c>
     </row>
     <row r="236" spans="1:23">
@@ -17184,10 +17184,10 @@
         <v>0.3971719741821289</v>
       </c>
       <c r="V236" t="n">
-        <v>0.6532728672027588</v>
+        <v>0.877778172492981</v>
       </c>
       <c r="W236" t="n">
-        <v>0.06558766961097717</v>
+        <v>0.230982318520546</v>
       </c>
     </row>
     <row r="237" spans="1:23">
@@ -17255,10 +17255,10 @@
         <v>0.3914217948913574</v>
       </c>
       <c r="V237" t="n">
-        <v>0.6542560458183289</v>
+        <v>0.3990172147750854</v>
       </c>
       <c r="W237" t="n">
-        <v>0.06908184289932251</v>
+        <v>5.769040217273869e-05</v>
       </c>
     </row>
     <row r="238" spans="1:23">
@@ -17326,10 +17326,10 @@
         <v>0.3898739814758301</v>
       </c>
       <c r="V238" t="n">
-        <v>0.417632520198822</v>
+        <v>0.8746405243873596</v>
       </c>
       <c r="W238" t="n">
-        <v>0.0007705364841967821</v>
+        <v>0.2349985986948013</v>
       </c>
     </row>
     <row r="239" spans="1:23">
@@ -17397,10 +17397,10 @@
         <v>0.3909099102020264</v>
       </c>
       <c r="V239" t="n">
-        <v>0.417653352022171</v>
+        <v>0.8738247752189636</v>
       </c>
       <c r="W239" t="n">
-        <v>0.000715211674105376</v>
+        <v>0.2332067638635635</v>
       </c>
     </row>
     <row r="240" spans="1:23">
@@ -17468,10 +17468,10 @@
         <v>0.3873860836029053</v>
       </c>
       <c r="V240" t="n">
-        <v>0.3507649004459381</v>
+        <v>0.3999245464801788</v>
       </c>
       <c r="W240" t="n">
-        <v>0.001341111026704311</v>
+        <v>0.0001572130568092689</v>
       </c>
     </row>
     <row r="241" spans="1:23">
@@ -17539,10 +17539,10 @@
         <v>0.3955919742584229</v>
       </c>
       <c r="V241" t="n">
-        <v>0.6992233991622925</v>
+        <v>0.515705406665802</v>
       </c>
       <c r="W241" t="n">
-        <v>0.09219203889369965</v>
+        <v>0.01442723628133535</v>
       </c>
     </row>
     <row r="242" spans="1:23">
@@ -17610,10 +17610,10 @@
         <v>0.8959829807281494</v>
       </c>
       <c r="V242" t="n">
-        <v>0.6990503668785095</v>
+        <v>0.8740607500076294</v>
       </c>
       <c r="W242" t="n">
-        <v>0.03878245502710342</v>
+        <v>0.0004805841890629381</v>
       </c>
     </row>
     <row r="243" spans="1:23">
@@ -17681,10 +17681,10 @@
         <v>0.8909528255462646</v>
       </c>
       <c r="V243" t="n">
-        <v>0.417630136013031</v>
+        <v>0.5295221209526062</v>
       </c>
       <c r="W243" t="n">
-        <v>0.2240343689918518</v>
+        <v>0.130632147192955</v>
       </c>
     </row>
     <row r="244" spans="1:23">
@@ -17752,10 +17752,10 @@
         <v>0.9313669204711914</v>
       </c>
       <c r="V244" t="n">
-        <v>0.5045288801193237</v>
+        <v>0.4000251591205597</v>
       </c>
       <c r="W244" t="n">
-        <v>0.1821907162666321</v>
+        <v>0.2823241055011749</v>
       </c>
     </row>
     <row r="245" spans="1:23">
@@ -17823,10 +17823,10 @@
         <v>0.8746728897094727</v>
       </c>
       <c r="V245" t="n">
-        <v>0.8340836763381958</v>
+        <v>0.8760623335838318</v>
       </c>
       <c r="W245" t="n">
-        <v>0.001647484255954623</v>
+        <v>1.930554390128236e-06</v>
       </c>
     </row>
     <row r="246" spans="1:23">
@@ -17894,10 +17894,10 @@
         <v>0.8677859306335449</v>
       </c>
       <c r="V246" t="n">
-        <v>0.4611244201660156</v>
+        <v>0.3999403417110443</v>
       </c>
       <c r="W246" t="n">
-        <v>0.1653735786676407</v>
+        <v>0.2188794910907745</v>
       </c>
     </row>
     <row r="247" spans="1:23">
@@ -17965,10 +17965,10 @@
         <v>0.8777871131896973</v>
       </c>
       <c r="V247" t="n">
-        <v>0.8004262447357178</v>
+        <v>0.5157249569892883</v>
       </c>
       <c r="W247" t="n">
-        <v>0.00598470401018858</v>
+        <v>0.1310890018939972</v>
       </c>
     </row>
     <row r="248" spans="1:23">
@@ -18036,10 +18036,10 @@
         <v>0.9214739799499512</v>
       </c>
       <c r="V248" t="n">
-        <v>0.4904197454452515</v>
+        <v>0.8813832402229309</v>
       </c>
       <c r="W248" t="n">
-        <v>0.1858077496290207</v>
+        <v>0.00160726741887629</v>
       </c>
     </row>
     <row r="249" spans="1:23">
@@ -18107,10 +18107,10 @@
         <v>0.872593879699707</v>
       </c>
       <c r="V249" t="n">
-        <v>0.5760207772254944</v>
+        <v>0.54539555311203</v>
       </c>
       <c r="W249" t="n">
-        <v>0.08795560151338577</v>
+        <v>0.1070587486028671</v>
       </c>
     </row>
     <row r="250" spans="1:23">
@@ -18178,10 +18178,10 @@
         <v>0.8679699897766113</v>
       </c>
       <c r="V250" t="n">
-        <v>0.5906542539596558</v>
+        <v>0.5246390104293823</v>
       </c>
       <c r="W250" t="n">
-        <v>0.07690401375293732</v>
+        <v>0.1178761646151543</v>
       </c>
     </row>
     <row r="251" spans="1:23">
@@ -18249,10 +18249,10 @@
         <v>0.8824689388275146</v>
       </c>
       <c r="V251" t="n">
-        <v>0.6537992358207703</v>
+        <v>0.4004304111003876</v>
       </c>
       <c r="W251" t="n">
-        <v>0.05228983238339424</v>
+        <v>0.2323611378669739</v>
       </c>
     </row>
     <row r="252" spans="1:23">
@@ -18320,10 +18320,10 @@
         <v>0.9217450618743896</v>
       </c>
       <c r="V252" t="n">
-        <v>0.5248144865036011</v>
+        <v>0.8741945028305054</v>
       </c>
       <c r="W252" t="n">
-        <v>0.1575538814067841</v>
+        <v>0.002261055633425713</v>
       </c>
     </row>
     <row r="253" spans="1:23">
@@ -18391,10 +18391,10 @@
         <v>0.8927731513977051</v>
       </c>
       <c r="V253" t="n">
-        <v>0.5756250023841858</v>
+        <v>0.8825703263282776</v>
       </c>
       <c r="W253" t="n">
-        <v>0.1005829498171806</v>
+        <v>0.0001040976421791129</v>
       </c>
     </row>
     <row r="254" spans="1:23">
@@ -18462,10 +18462,10 @@
         <v>0.8702328205108643</v>
       </c>
       <c r="V254" t="n">
-        <v>0.5762007236480713</v>
+        <v>0.5087031722068787</v>
       </c>
       <c r="W254" t="n">
-        <v>0.08645487576723099</v>
+        <v>0.1307036876678467</v>
       </c>
     </row>
     <row r="255" spans="1:23">
@@ -18533,10 +18533,10 @@
         <v>0.8720419406890869</v>
       </c>
       <c r="V255" t="n">
-        <v>0.3507504463195801</v>
+        <v>0.5266240835189819</v>
       </c>
       <c r="W255" t="n">
-        <v>0.2717448174953461</v>
+        <v>0.1193134933710098</v>
       </c>
     </row>
     <row r="256" spans="1:23">
@@ -18604,10 +18604,10 @@
         <v>0.9195168018341064</v>
       </c>
       <c r="V256" t="n">
-        <v>0.3783480226993561</v>
+        <v>0.5264953970909119</v>
       </c>
       <c r="W256" t="n">
-        <v>0.292863667011261</v>
+        <v>0.1544658243656158</v>
       </c>
     </row>
     <row r="257" spans="1:23">
@@ -18675,10 +18675,10 @@
         <v>0.8811490535736084</v>
       </c>
       <c r="V257" t="n">
-        <v>0.5263315439224243</v>
+        <v>0.8764392733573914</v>
       </c>
       <c r="W257" t="n">
-        <v>0.1258954703807831</v>
+        <v>2.218203007942066e-05</v>
       </c>
     </row>
     <row r="258" spans="1:23">
@@ -18746,10 +18746,10 @@
         <v>0.8789699077606201</v>
       </c>
       <c r="V258" t="n">
-        <v>0.6528818607330322</v>
+        <v>0.5273661613464355</v>
       </c>
       <c r="W258" t="n">
-        <v>0.05111580342054367</v>
+        <v>0.1236251965165138</v>
       </c>
     </row>
     <row r="259" spans="1:23">
@@ -18817,10 +18817,10 @@
         <v>0.8818638324737549</v>
       </c>
       <c r="V259" t="n">
-        <v>0.4638172388076782</v>
+        <v>0.8697769641876221</v>
       </c>
       <c r="W259" t="n">
-        <v>0.174762949347496</v>
+        <v>0.0001460923813283443</v>
       </c>
     </row>
     <row r="260" spans="1:23">
@@ -18888,10 +18888,10 @@
         <v>0.9344041347503662</v>
       </c>
       <c r="V260" t="n">
-        <v>0.5042588710784912</v>
+        <v>0.5155783295631409</v>
       </c>
       <c r="W260" t="n">
-        <v>0.1850249469280243</v>
+        <v>0.1754150539636612</v>
       </c>
     </row>
     <row r="261" spans="1:23">
@@ -18959,10 +18959,10 @@
         <v>0.8799490928649902</v>
       </c>
       <c r="V261" t="n">
-        <v>0.4176395535469055</v>
+        <v>0.5277653932571411</v>
       </c>
       <c r="W261" t="n">
-        <v>0.2137301117181778</v>
+        <v>0.1240333616733551</v>
       </c>
     </row>
     <row r="262" spans="1:23">
@@ -19030,10 +19030,10 @@
         <v>0.5291008949279785</v>
       </c>
       <c r="V262" t="n">
-        <v>0.6863111853599548</v>
+        <v>0.402486652135849</v>
       </c>
       <c r="W262" t="n">
-        <v>0.02471507526934147</v>
+        <v>0.01603116653859615</v>
       </c>
     </row>
     <row r="263" spans="1:23">
@@ -19101,10 +19101,10 @@
         <v>0.5541608333587646</v>
       </c>
       <c r="V263" t="n">
-        <v>0.3782425820827484</v>
+        <v>0.5154940485954285</v>
       </c>
       <c r="W263" t="n">
-        <v>0.03094723075628281</v>
+        <v>0.001495120231993496</v>
       </c>
     </row>
     <row r="264" spans="1:23">
@@ -19172,10 +19172,10 @@
         <v>0.5253040790557861</v>
       </c>
       <c r="V264" t="n">
-        <v>0.4638285040855408</v>
+        <v>0.4021261036396027</v>
       </c>
       <c r="W264" t="n">
-        <v>0.003779246238991618</v>
+        <v>0.01517281401902437</v>
       </c>
     </row>
     <row r="265" spans="1:23">
@@ -19243,10 +19243,10 @@
         <v>0.5294609069824219</v>
       </c>
       <c r="V265" t="n">
-        <v>0.5873388648033142</v>
+        <v>0.3990378975868225</v>
       </c>
       <c r="W265" t="n">
-        <v>0.003349858103320003</v>
+        <v>0.01701016165316105</v>
       </c>
     </row>
     <row r="266" spans="1:23">
@@ -19314,10 +19314,10 @@
         <v>0.5240299701690674</v>
       </c>
       <c r="V266" t="n">
-        <v>0.3516814708709717</v>
+        <v>0.5092515349388123</v>
       </c>
       <c r="W266" t="n">
-        <v>0.02970400452613831</v>
+        <v>0.0002184021432185546</v>
       </c>
     </row>
     <row r="267" spans="1:23">
@@ -19385,10 +19385,10 @@
         <v>0.523688793182373</v>
       </c>
       <c r="V267" t="n">
-        <v>0.7080770134925842</v>
+        <v>0.5155948400497437</v>
       </c>
       <c r="W267" t="n">
-        <v>0.0339990146458149</v>
+        <v>6.55120747978799e-05</v>
       </c>
     </row>
     <row r="268" spans="1:23">
@@ -19456,10 +19456,10 @@
         <v>0.5260989665985107</v>
       </c>
       <c r="V268" t="n">
-        <v>0.9756271839141846</v>
+        <v>0.8673313856124878</v>
       </c>
       <c r="W268" t="n">
-        <v>0.2020756155252457</v>
+        <v>0.1164395660161972</v>
       </c>
     </row>
     <row r="269" spans="1:23">
@@ -19527,10 +19527,10 @@
         <v>0.5240709781646729</v>
       </c>
       <c r="V269" t="n">
-        <v>0.8027225732803345</v>
+        <v>0.5258379578590393</v>
       </c>
       <c r="W269" t="n">
-        <v>0.07764670997858047</v>
+        <v>3.122217322015786e-06</v>
       </c>
     </row>
     <row r="270" spans="1:23">
@@ -19598,10 +19598,10 @@
         <v>0.5618979930877686</v>
       </c>
       <c r="V270" t="n">
-        <v>0.4176727831363678</v>
+        <v>0.5290537476539612</v>
       </c>
       <c r="W270" t="n">
-        <v>0.02080091089010239</v>
+        <v>0.001078744418919086</v>
       </c>
     </row>
     <row r="271" spans="1:23">
@@ -19669,10 +19669,10 @@
         <v>0.5251791477203369</v>
       </c>
       <c r="V271" t="n">
-        <v>0.9757455587387085</v>
+        <v>0.8739977478981018</v>
       </c>
       <c r="W271" t="n">
-        <v>0.2030100971460342</v>
+        <v>0.1216744184494019</v>
       </c>
     </row>
     <row r="272" spans="1:23">
@@ -19740,10 +19740,10 @@
         <v>0.5325028896331787</v>
       </c>
       <c r="V272" t="n">
-        <v>0.6525439023971558</v>
+        <v>0.8782497644424438</v>
       </c>
       <c r="W272" t="n">
-        <v>0.01440984476357698</v>
+        <v>0.1195408999919891</v>
       </c>
     </row>
     <row r="273" spans="1:23">
@@ -19811,10 +19811,10 @@
         <v>0.5240340232849121</v>
       </c>
       <c r="V273" t="n">
-        <v>0.3518496155738831</v>
+        <v>0.3990344405174255</v>
       </c>
       <c r="W273" t="n">
-        <v>0.02964746952056885</v>
+        <v>0.01562489569187164</v>
       </c>
     </row>
     <row r="274" spans="1:23">
@@ -19882,10 +19882,10 @@
         <v>0.5308098793029785</v>
       </c>
       <c r="V274" t="n">
-        <v>0.8371423482894897</v>
+        <v>0.869758129119873</v>
       </c>
       <c r="W274" t="n">
-        <v>0.09383957833051682</v>
+        <v>0.1148859187960625</v>
       </c>
     </row>
     <row r="275" spans="1:23">
@@ -19953,10 +19953,10 @@
         <v>0.5849809646606445</v>
       </c>
       <c r="V275" t="n">
-        <v>0.4175510704517365</v>
+        <v>0.8753232955932617</v>
       </c>
       <c r="W275" t="n">
-        <v>0.02803277038037777</v>
+        <v>0.08429867029190063</v>
       </c>
     </row>
     <row r="276" spans="1:23">
@@ -20024,10 +20024,10 @@
         <v>0.5251448154449463</v>
       </c>
       <c r="V276" t="n">
-        <v>0.8296502828598022</v>
+        <v>0.5287814736366272</v>
       </c>
       <c r="W276" t="n">
-        <v>0.09272357821464539</v>
+        <v>1.322528260061517e-05</v>
       </c>
     </row>
     <row r="277" spans="1:23">
@@ -20095,10 +20095,10 @@
         <v>0.5267179012298584</v>
       </c>
       <c r="V277" t="n">
-        <v>0.4692052006721497</v>
+        <v>0.8879047036170959</v>
       </c>
       <c r="W277" t="n">
-        <v>0.003307710634544492</v>
+        <v>0.1304559111595154</v>
       </c>
     </row>
     <row r="278" spans="1:23">
@@ -20166,10 +20166,10 @@
         <v>0.5216169357299805</v>
       </c>
       <c r="V278" t="n">
-        <v>0.8386415839195251</v>
+        <v>0.4000093042850494</v>
       </c>
       <c r="W278" t="n">
-        <v>0.1005046293139458</v>
+        <v>0.01478841621428728</v>
       </c>
     </row>
     <row r="279" spans="1:23">
@@ -20237,10 +20237,10 @@
         <v>0.5280008316040039</v>
       </c>
       <c r="V279" t="n">
-        <v>0.3794727325439453</v>
+        <v>0.8876573443412781</v>
       </c>
       <c r="W279" t="n">
-        <v>0.02206059545278549</v>
+        <v>0.1293528079986572</v>
       </c>
     </row>
     <row r="280" spans="1:23">
@@ -20308,10 +20308,10 @@
         <v>0.52069091796875</v>
       </c>
       <c r="V280" t="n">
-        <v>0.5051093101501465</v>
+        <v>0.8714845180511475</v>
       </c>
       <c r="W280" t="n">
-        <v>0.0002427864965284243</v>
+        <v>0.1230561509728432</v>
       </c>
     </row>
     <row r="281" spans="1:23">
@@ -20379,10 +20379,10 @@
         <v>0.5260829925537109</v>
       </c>
       <c r="V281" t="n">
-        <v>0.4634914994239807</v>
+        <v>0.4022323489189148</v>
       </c>
       <c r="W281" t="n">
-        <v>0.00391769502311945</v>
+        <v>0.01533898152410984</v>
       </c>
     </row>
     <row r="282" spans="1:23">
@@ -20450,10 +20450,10 @@
         <v>0.4288549423217773</v>
       </c>
       <c r="V282" t="n">
-        <v>0.7035881876945496</v>
+        <v>0.8852747082710266</v>
       </c>
       <c r="W282" t="n">
-        <v>0.07547835260629654</v>
+        <v>0.2083190083503723</v>
       </c>
     </row>
     <row r="283" spans="1:23">
@@ -20521,10 +20521,10 @@
         <v>0.3983218669891357</v>
       </c>
       <c r="V283" t="n">
-        <v>0.4615180790424347</v>
+        <v>0.5236606001853943</v>
       </c>
       <c r="W283" t="n">
-        <v>0.003993761260062456</v>
+        <v>0.01570979878306389</v>
       </c>
     </row>
     <row r="284" spans="1:23">
@@ -20592,10 +20592,10 @@
         <v>0.3990941047668457</v>
       </c>
       <c r="V284" t="n">
-        <v>0.6533357501029968</v>
+        <v>0.5235959887504578</v>
       </c>
       <c r="W284" t="n">
-        <v>0.06463881582021713</v>
+        <v>0.01550071872770786</v>
       </c>
     </row>
     <row r="285" spans="1:23">
@@ -20663,10 +20663,10 @@
         <v>0.3994898796081543</v>
       </c>
       <c r="V285" t="n">
-        <v>0.7080433368682861</v>
+        <v>0.5181203484535217</v>
       </c>
       <c r="W285" t="n">
-        <v>0.09520523250102997</v>
+        <v>0.01407318841665983</v>
       </c>
     </row>
     <row r="286" spans="1:23">
@@ -20734,10 +20734,10 @@
         <v>0.3976750373840332</v>
       </c>
       <c r="V286" t="n">
-        <v>0.6927068829536438</v>
+        <v>0.5322209000587463</v>
       </c>
       <c r="W286" t="n">
-        <v>0.08704379200935364</v>
+        <v>0.01810258999466896</v>
       </c>
     </row>
     <row r="287" spans="1:23">
@@ -20805,10 +20805,10 @@
         <v>0.3977408409118652</v>
       </c>
       <c r="V287" t="n">
-        <v>0.4904178380966187</v>
+        <v>0.5179822444915771</v>
       </c>
       <c r="W287" t="n">
-        <v>0.008589025586843491</v>
+        <v>0.01445799507200718</v>
       </c>
     </row>
     <row r="288" spans="1:23">
@@ -20876,10 +20876,10 @@
         <v>0.3986451625823975</v>
       </c>
       <c r="V288" t="n">
-        <v>0.4614459872245789</v>
+        <v>0.3990261256694794</v>
       </c>
       <c r="W288" t="n">
-        <v>0.003943943418562412</v>
+        <v>1.451328728307999e-07</v>
       </c>
     </row>
     <row r="289" spans="1:23">
@@ -20947,10 +20947,10 @@
         <v>0.4025769233703613</v>
       </c>
       <c r="V289" t="n">
-        <v>0.8337250947952271</v>
+        <v>0.874092161655426</v>
       </c>
       <c r="W289" t="n">
-        <v>0.1858887523412704</v>
+        <v>0.2223266214132309</v>
       </c>
     </row>
     <row r="290" spans="1:23">
@@ -21018,10 +21018,10 @@
         <v>0.3969740867614746</v>
       </c>
       <c r="V290" t="n">
-        <v>0.5262220501899719</v>
+        <v>0.4006087183952332</v>
       </c>
       <c r="W290" t="n">
-        <v>0.01670503616333008</v>
+        <v>1.321054696745705e-05</v>
       </c>
     </row>
     <row r="291" spans="1:23">
@@ -21089,10 +21089,10 @@
         <v>0.3989620208740234</v>
       </c>
       <c r="V291" t="n">
-        <v>0.975181519985199</v>
+        <v>0.515566885471344</v>
       </c>
       <c r="W291" t="n">
-        <v>0.3320289254188538</v>
+        <v>0.01359669398516417</v>
       </c>
     </row>
     <row r="292" spans="1:23">
@@ -21160,10 +21160,10 @@
         <v>0.3971779346466064</v>
       </c>
       <c r="V292" t="n">
-        <v>0.505433976650238</v>
+        <v>0.4005821645259857</v>
       </c>
       <c r="W292" t="n">
-        <v>0.01171937026083469</v>
+        <v>1.158878148999065e-05</v>
       </c>
     </row>
     <row r="293" spans="1:23">
@@ -21231,10 +21231,10 @@
         <v>0.3984119892120361</v>
       </c>
       <c r="V293" t="n">
-        <v>0.4907099008560181</v>
+        <v>0.4010355770587921</v>
       </c>
       <c r="W293" t="n">
-        <v>0.008518904447555542</v>
+        <v>6.883213245600928e-06</v>
       </c>
     </row>
     <row r="294" spans="1:23">
@@ -21302,10 +21302,10 @@
         <v>0.394752025604248</v>
       </c>
       <c r="V294" t="n">
-        <v>0.371780127286911</v>
+        <v>0.4020344018936157</v>
       </c>
       <c r="W294" t="n">
-        <v>0.0005277080927044153</v>
+        <v>5.303300349623896e-05</v>
       </c>
     </row>
     <row r="295" spans="1:23">
@@ -21373,10 +21373,10 @@
         <v>0.3961420059204102</v>
       </c>
       <c r="V295" t="n">
-        <v>0.6992238759994507</v>
+        <v>0.8767310976982117</v>
       </c>
       <c r="W295" t="n">
-        <v>0.09185861796140671</v>
+        <v>0.2309658825397491</v>
       </c>
     </row>
     <row r="296" spans="1:23">
@@ -21444,10 +21444,10 @@
         <v>0.3942232131958008</v>
       </c>
       <c r="V296" t="n">
-        <v>0.5826250314712524</v>
+        <v>0.4000325798988342</v>
       </c>
       <c r="W296" t="n">
-        <v>0.03549524396657944</v>
+        <v>3.374873995198868e-05</v>
       </c>
     </row>
     <row r="297" spans="1:23">
@@ -21515,10 +21515,10 @@
         <v>0.3977489471435547</v>
       </c>
       <c r="V297" t="n">
-        <v>0.3718892931938171</v>
+        <v>0.4011500477790833</v>
       </c>
       <c r="W297" t="n">
-        <v>0.0006687216809950769</v>
+        <v>1.156748567154864e-05</v>
       </c>
     </row>
     <row r="298" spans="1:23">
@@ -21586,10 +21586,10 @@
         <v>0.3998439311981201</v>
       </c>
       <c r="V298" t="n">
-        <v>0.3783526420593262</v>
+        <v>0.4011083543300629</v>
       </c>
       <c r="W298" t="n">
-        <v>0.0004618755192495883</v>
+        <v>1.59876583438745e-06</v>
       </c>
     </row>
     <row r="299" spans="1:23">
@@ -21657,10 +21657,10 @@
         <v>0.4500770568847656</v>
       </c>
       <c r="V299" t="n">
-        <v>0.35074183344841</v>
+        <v>0.5310837626457214</v>
       </c>
       <c r="W299" t="n">
-        <v>0.009867486543953419</v>
+        <v>0.006562086287885904</v>
       </c>
     </row>
     <row r="300" spans="1:23">
@@ -21728,10 +21728,10 @@
         <v>0.4019060134887695</v>
       </c>
       <c r="V300" t="n">
-        <v>0.4781287908554077</v>
+        <v>0.4021308720111847</v>
       </c>
       <c r="W300" t="n">
-        <v>0.005809911992400885</v>
+        <v>5.05613542145511e-08</v>
       </c>
     </row>
     <row r="301" spans="1:23">
@@ -21799,10 +21799,10 @@
         <v>0.399806022644043</v>
       </c>
       <c r="V301" t="n">
-        <v>0.5050980448722839</v>
+        <v>0.874850332736969</v>
       </c>
       <c r="W301" t="n">
-        <v>0.01108640991151333</v>
+        <v>0.2256670892238617</v>
       </c>
     </row>
     <row r="302" spans="1:23">
